--- a/z0bug_odoo/data/account_account.xlsx
+++ b/z0bug_odoo/data/account_account.xlsx
@@ -4667,8 +4667,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -4735,12 +4736,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4763,15 +4772,15 @@
   </sheetPr>
   <dimension ref="A1:H740"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B435" activeCellId="0" sqref="B435"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
@@ -4783,10 +4792,10 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -4809,7 +4818,7 @@
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>101000</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -4829,7 +4838,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>101001</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -4849,7 +4858,7 @@
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>102000</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -4869,7 +4878,7 @@
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>102001</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -4889,7 +4898,7 @@
       <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>121100</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -4909,7 +4918,7 @@
       <c r="A7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>121110</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -4929,7 +4938,7 @@
       <c r="A8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>121120</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -4949,7 +4958,7 @@
       <c r="A9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>121130</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -4969,7 +4978,7 @@
       <c r="A10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>121140</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -4989,7 +4998,7 @@
       <c r="A11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>121150</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -5009,7 +5018,7 @@
       <c r="A12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>121200</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -5029,7 +5038,7 @@
       <c r="A13" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>121210</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -5049,7 +5058,7 @@
       <c r="A14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>121220</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -5069,7 +5078,7 @@
       <c r="A15" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>121300</v>
       </c>
       <c r="D15" s="0" t="s">
@@ -5089,7 +5098,7 @@
       <c r="A16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>121310</v>
       </c>
       <c r="D16" s="0" t="s">
@@ -5109,7 +5118,7 @@
       <c r="A17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>121320</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -5129,7 +5138,7 @@
       <c r="A18" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>121330</v>
       </c>
       <c r="D18" s="0" t="s">
@@ -5149,7 +5158,7 @@
       <c r="A19" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>121400</v>
       </c>
       <c r="D19" s="0" t="s">
@@ -5169,7 +5178,7 @@
       <c r="A20" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>121410</v>
       </c>
       <c r="D20" s="0" t="s">
@@ -5189,7 +5198,7 @@
       <c r="A21" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>121420</v>
       </c>
       <c r="D21" s="0" t="s">
@@ -5209,7 +5218,7 @@
       <c r="A22" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>121430</v>
       </c>
       <c r="D22" s="0" t="s">
@@ -5229,7 +5238,7 @@
       <c r="A23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>121440</v>
       </c>
       <c r="D23" s="0" t="s">
@@ -5249,7 +5258,7 @@
       <c r="A24" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>121500</v>
       </c>
       <c r="D24" s="0" t="s">
@@ -5269,7 +5278,7 @@
       <c r="A25" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>121510</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -5289,7 +5298,7 @@
       <c r="A26" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>121600</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -5309,7 +5318,7 @@
       <c r="A27" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>121620</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -5329,7 +5338,7 @@
       <c r="A28" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>121630</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -5349,7 +5358,7 @@
       <c r="A29" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>121640</v>
       </c>
       <c r="D29" s="0" t="s">
@@ -5369,7 +5378,7 @@
       <c r="A30" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>121700</v>
       </c>
       <c r="D30" s="0" t="s">
@@ -5389,7 +5398,7 @@
       <c r="A31" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>121710</v>
       </c>
       <c r="D31" s="0" t="s">
@@ -5409,7 +5418,7 @@
       <c r="A32" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>121720</v>
       </c>
       <c r="D32" s="0" t="s">
@@ -5429,7 +5438,7 @@
       <c r="A33" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>121730</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -5449,7 +5458,7 @@
       <c r="A34" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>121740</v>
       </c>
       <c r="D34" s="0" t="s">
@@ -5469,7 +5478,7 @@
       <c r="A35" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>121750</v>
       </c>
       <c r="D35" s="0" t="s">
@@ -5489,7 +5498,7 @@
       <c r="A36" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>122100</v>
       </c>
       <c r="D36" s="0" t="s">
@@ -5509,7 +5518,7 @@
       <c r="A37" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>122110</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -5529,7 +5538,7 @@
       <c r="A38" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>122120</v>
       </c>
       <c r="D38" s="0" t="s">
@@ -5549,7 +5558,7 @@
       <c r="A39" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>122130</v>
       </c>
       <c r="D39" s="0" t="s">
@@ -5569,7 +5578,7 @@
       <c r="A40" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>122140</v>
       </c>
       <c r="D40" s="0" t="s">
@@ -5589,7 +5598,7 @@
       <c r="A41" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>122150</v>
       </c>
       <c r="D41" s="0" t="s">
@@ -5609,7 +5618,7 @@
       <c r="A42" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>122200</v>
       </c>
       <c r="D42" s="0" t="s">
@@ -5629,7 +5638,7 @@
       <c r="A43" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>122210</v>
       </c>
       <c r="D43" s="0" t="s">
@@ -5649,7 +5658,7 @@
       <c r="A44" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>122220</v>
       </c>
       <c r="D44" s="0" t="s">
@@ -5669,7 +5678,7 @@
       <c r="A45" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>122300</v>
       </c>
       <c r="D45" s="0" t="s">
@@ -5689,7 +5698,7 @@
       <c r="A46" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>122310</v>
       </c>
       <c r="D46" s="0" t="s">
@@ -5709,7 +5718,7 @@
       <c r="A47" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>122320</v>
       </c>
       <c r="D47" s="0" t="s">
@@ -5729,7 +5738,7 @@
       <c r="A48" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>122330</v>
       </c>
       <c r="D48" s="0" t="s">
@@ -5749,7 +5758,7 @@
       <c r="A49" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>122400</v>
       </c>
       <c r="D49" s="0" t="s">
@@ -5769,7 +5778,7 @@
       <c r="A50" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>122410</v>
       </c>
       <c r="D50" s="0" t="s">
@@ -5789,7 +5798,7 @@
       <c r="A51" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>122420</v>
       </c>
       <c r="D51" s="0" t="s">
@@ -5809,7 +5818,7 @@
       <c r="A52" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>122430</v>
       </c>
       <c r="D52" s="0" t="s">
@@ -5829,7 +5838,7 @@
       <c r="A53" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>122440</v>
       </c>
       <c r="D53" s="0" t="s">
@@ -5849,7 +5858,7 @@
       <c r="A54" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>122500</v>
       </c>
       <c r="D54" s="0" t="s">
@@ -5869,7 +5878,7 @@
       <c r="A55" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>122510</v>
       </c>
       <c r="D55" s="0" t="s">
@@ -5889,7 +5898,7 @@
       <c r="A56" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>122600</v>
       </c>
       <c r="D56" s="0" t="s">
@@ -5909,7 +5918,7 @@
       <c r="A57" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>122620</v>
       </c>
       <c r="D57" s="0" t="s">
@@ -5929,7 +5938,7 @@
       <c r="A58" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>122630</v>
       </c>
       <c r="D58" s="0" t="s">
@@ -5949,7 +5958,7 @@
       <c r="A59" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>122640</v>
       </c>
       <c r="D59" s="0" t="s">
@@ -5969,7 +5978,7 @@
       <c r="A60" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>122700</v>
       </c>
       <c r="D60" s="0" t="s">
@@ -5989,7 +5998,7 @@
       <c r="A61" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>122710</v>
       </c>
       <c r="D61" s="0" t="s">
@@ -6009,7 +6018,7 @@
       <c r="A62" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>122720</v>
       </c>
       <c r="D62" s="0" t="s">
@@ -6029,7 +6038,7 @@
       <c r="A63" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>122730</v>
       </c>
       <c r="D63" s="0" t="s">
@@ -6049,7 +6058,7 @@
       <c r="A64" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>122740</v>
       </c>
       <c r="D64" s="0" t="s">
@@ -6069,7 +6078,7 @@
       <c r="A65" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>122750</v>
       </c>
       <c r="D65" s="0" t="s">
@@ -6089,7 +6098,7 @@
       <c r="A66" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>123100</v>
       </c>
       <c r="D66" s="0" t="s">
@@ -6109,7 +6118,7 @@
       <c r="A67" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>123110</v>
       </c>
       <c r="D67" s="0" t="s">
@@ -6129,7 +6138,7 @@
       <c r="A68" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>123120</v>
       </c>
       <c r="D68" s="0" t="s">
@@ -6149,7 +6158,7 @@
       <c r="A69" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>123130</v>
       </c>
       <c r="D69" s="0" t="s">
@@ -6169,7 +6178,7 @@
       <c r="A70" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>123140</v>
       </c>
       <c r="D70" s="0" t="s">
@@ -6189,7 +6198,7 @@
       <c r="A71" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>123150</v>
       </c>
       <c r="D71" s="0" t="s">
@@ -6209,7 +6218,7 @@
       <c r="A72" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>123160</v>
       </c>
       <c r="D72" s="0" t="s">
@@ -6229,7 +6238,7 @@
       <c r="A73" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>123170</v>
       </c>
       <c r="D73" s="0" t="s">
@@ -6249,7 +6258,7 @@
       <c r="A74" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>123180</v>
       </c>
       <c r="D74" s="0" t="s">
@@ -6269,7 +6278,7 @@
       <c r="A75" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>123200</v>
       </c>
       <c r="D75" s="0" t="s">
@@ -6289,7 +6298,7 @@
       <c r="A76" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>123210</v>
       </c>
       <c r="D76" s="0" t="s">
@@ -6309,7 +6318,7 @@
       <c r="A77" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>123220</v>
       </c>
       <c r="D77" s="0" t="s">
@@ -6329,7 +6338,7 @@
       <c r="A78" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>123230</v>
       </c>
       <c r="D78" s="0" t="s">
@@ -6349,7 +6358,7 @@
       <c r="A79" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>123240</v>
       </c>
       <c r="D79" s="0" t="s">
@@ -6369,7 +6378,7 @@
       <c r="A80" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <v>123300</v>
       </c>
       <c r="D80" s="0" t="s">
@@ -6389,7 +6398,7 @@
       <c r="A81" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <v>123310</v>
       </c>
       <c r="D81" s="0" t="s">
@@ -6409,7 +6418,7 @@
       <c r="A82" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <v>123320</v>
       </c>
       <c r="D82" s="0" t="s">
@@ -6429,7 +6438,7 @@
       <c r="A83" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>123330</v>
       </c>
       <c r="D83" s="0" t="s">
@@ -6449,7 +6458,7 @@
       <c r="A84" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>123340</v>
       </c>
       <c r="D84" s="0" t="s">
@@ -6469,7 +6478,7 @@
       <c r="A85" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>123350</v>
       </c>
       <c r="D85" s="0" t="s">
@@ -6489,7 +6498,7 @@
       <c r="A86" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>123360</v>
       </c>
       <c r="D86" s="0" t="s">
@@ -6509,7 +6518,7 @@
       <c r="A87" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>123370</v>
       </c>
       <c r="D87" s="0" t="s">
@@ -6529,7 +6538,7 @@
       <c r="A88" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>123380</v>
       </c>
       <c r="D88" s="0" t="s">
@@ -6549,7 +6558,7 @@
       <c r="A89" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>123382</v>
       </c>
       <c r="D89" s="0" t="s">
@@ -6569,7 +6578,7 @@
       <c r="A90" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>123390</v>
       </c>
       <c r="D90" s="0" t="s">
@@ -6589,7 +6598,7 @@
       <c r="A91" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>123400</v>
       </c>
       <c r="D91" s="0" t="s">
@@ -6609,7 +6618,7 @@
       <c r="A92" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <v>123410</v>
       </c>
       <c r="D92" s="0" t="s">
@@ -6629,7 +6638,7 @@
       <c r="A93" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>123420</v>
       </c>
       <c r="D93" s="0" t="s">
@@ -6649,7 +6658,7 @@
       <c r="A94" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>123430</v>
       </c>
       <c r="D94" s="0" t="s">
@@ -6669,7 +6678,7 @@
       <c r="A95" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>123500</v>
       </c>
       <c r="D95" s="0" t="s">
@@ -6689,7 +6698,7 @@
       <c r="A96" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>123510</v>
       </c>
       <c r="D96" s="0" t="s">
@@ -6709,7 +6718,7 @@
       <c r="A97" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>123520</v>
       </c>
       <c r="D97" s="0" t="s">
@@ -6729,7 +6738,7 @@
       <c r="A98" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>124100</v>
       </c>
       <c r="D98" s="0" t="s">
@@ -6749,7 +6758,7 @@
       <c r="A99" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>124110</v>
       </c>
       <c r="D99" s="0" t="s">
@@ -6769,7 +6778,7 @@
       <c r="A100" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>124120</v>
       </c>
       <c r="D100" s="0" t="s">
@@ -6789,7 +6798,7 @@
       <c r="A101" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>124130</v>
       </c>
       <c r="D101" s="0" t="s">
@@ -6809,7 +6818,7 @@
       <c r="A102" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>124140</v>
       </c>
       <c r="D102" s="0" t="s">
@@ -6829,7 +6838,7 @@
       <c r="A103" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>124150</v>
       </c>
       <c r="D103" s="0" t="s">
@@ -6849,7 +6858,7 @@
       <c r="A104" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>124160</v>
       </c>
       <c r="D104" s="0" t="s">
@@ -6869,7 +6878,7 @@
       <c r="A105" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>124170</v>
       </c>
       <c r="D105" s="0" t="s">
@@ -6889,7 +6898,7 @@
       <c r="A106" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>124180</v>
       </c>
       <c r="D106" s="0" t="s">
@@ -6909,7 +6918,7 @@
       <c r="A107" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>124200</v>
       </c>
       <c r="D107" s="0" t="s">
@@ -6929,7 +6938,7 @@
       <c r="A108" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>124210</v>
       </c>
       <c r="D108" s="0" t="s">
@@ -6949,7 +6958,7 @@
       <c r="A109" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>124220</v>
       </c>
       <c r="D109" s="0" t="s">
@@ -6969,7 +6978,7 @@
       <c r="A110" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>124230</v>
       </c>
       <c r="D110" s="0" t="s">
@@ -6989,7 +6998,7 @@
       <c r="A111" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>124240</v>
       </c>
       <c r="D111" s="0" t="s">
@@ -7009,7 +7018,7 @@
       <c r="A112" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>124300</v>
       </c>
       <c r="D112" s="0" t="s">
@@ -7029,7 +7038,7 @@
       <c r="A113" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>124310</v>
       </c>
       <c r="D113" s="0" t="s">
@@ -7049,7 +7058,7 @@
       <c r="A114" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>124320</v>
       </c>
       <c r="D114" s="0" t="s">
@@ -7069,7 +7078,7 @@
       <c r="A115" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>124330</v>
       </c>
       <c r="D115" s="0" t="s">
@@ -7089,7 +7098,7 @@
       <c r="A116" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>124340</v>
       </c>
       <c r="D116" s="0" t="s">
@@ -7109,7 +7118,7 @@
       <c r="A117" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>124350</v>
       </c>
       <c r="D117" s="0" t="s">
@@ -7129,7 +7138,7 @@
       <c r="A118" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>124360</v>
       </c>
       <c r="D118" s="0" t="s">
@@ -7149,7 +7158,7 @@
       <c r="A119" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>124370</v>
       </c>
       <c r="D119" s="0" t="s">
@@ -7169,7 +7178,7 @@
       <c r="A120" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>124380</v>
       </c>
       <c r="D120" s="0" t="s">
@@ -7189,7 +7198,7 @@
       <c r="A121" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>124382</v>
       </c>
       <c r="D121" s="0" t="s">
@@ -7209,7 +7218,7 @@
       <c r="A122" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>124390</v>
       </c>
       <c r="D122" s="0" t="s">
@@ -7229,7 +7238,7 @@
       <c r="A123" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="1" t="n">
         <v>124400</v>
       </c>
       <c r="D123" s="0" t="s">
@@ -7249,7 +7258,7 @@
       <c r="A124" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>124410</v>
       </c>
       <c r="D124" s="0" t="s">
@@ -7269,7 +7278,7 @@
       <c r="A125" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>124420</v>
       </c>
       <c r="D125" s="0" t="s">
@@ -7289,7 +7298,7 @@
       <c r="A126" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>124430</v>
       </c>
       <c r="D126" s="0" t="s">
@@ -7309,7 +7318,7 @@
       <c r="A127" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>124500</v>
       </c>
       <c r="D127" s="0" t="s">
@@ -7329,7 +7338,7 @@
       <c r="A128" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>124510</v>
       </c>
       <c r="D128" s="0" t="s">
@@ -7349,7 +7358,7 @@
       <c r="A129" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="1" t="n">
         <v>124520</v>
       </c>
       <c r="D129" s="0" t="s">
@@ -7369,7 +7378,7 @@
       <c r="A130" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="1" t="n">
         <v>125100</v>
       </c>
       <c r="D130" s="0" t="s">
@@ -7389,7 +7398,7 @@
       <c r="A131" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="1" t="n">
         <v>125200</v>
       </c>
       <c r="D131" s="0" t="s">
@@ -7409,7 +7418,7 @@
       <c r="A132" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="1" t="n">
         <v>125300</v>
       </c>
       <c r="D132" s="0" t="s">
@@ -7429,7 +7438,7 @@
       <c r="A133" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>125400</v>
       </c>
       <c r="D133" s="0" t="s">
@@ -7449,7 +7458,7 @@
       <c r="A134" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" s="1" t="n">
         <v>125500</v>
       </c>
       <c r="D134" s="0" t="s">
@@ -7469,7 +7478,7 @@
       <c r="A135" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135" s="1" t="n">
         <v>125550</v>
       </c>
       <c r="D135" s="0" t="s">
@@ -7489,7 +7498,7 @@
       <c r="A136" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136" s="1" t="n">
         <v>125600</v>
       </c>
       <c r="D136" s="0" t="s">
@@ -7509,7 +7518,7 @@
       <c r="A137" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137" s="1" t="n">
         <v>125650</v>
       </c>
       <c r="D137" s="0" t="s">
@@ -7529,7 +7538,7 @@
       <c r="A138" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" s="1" t="n">
         <v>125700</v>
       </c>
       <c r="D138" s="0" t="s">
@@ -7549,7 +7558,7 @@
       <c r="A139" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" s="1" t="n">
         <v>125750</v>
       </c>
       <c r="D139" s="0" t="s">
@@ -7569,7 +7578,7 @@
       <c r="A140" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="1" t="n">
         <v>125800</v>
       </c>
       <c r="D140" s="0" t="s">
@@ -7589,7 +7598,7 @@
       <c r="A141" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="1" t="n">
         <v>125850</v>
       </c>
       <c r="D141" s="0" t="s">
@@ -7609,7 +7618,7 @@
       <c r="A142" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="1" t="n">
         <v>125900</v>
       </c>
       <c r="D142" s="0" t="s">
@@ -7629,7 +7638,7 @@
       <c r="A143" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="1" t="n">
         <v>125950</v>
       </c>
       <c r="D143" s="0" t="s">
@@ -7649,7 +7658,7 @@
       <c r="A144" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="1" t="n">
         <v>126000</v>
       </c>
       <c r="D144" s="0" t="s">
@@ -7669,7 +7678,7 @@
       <c r="A145" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="1" t="n">
         <v>126100</v>
       </c>
       <c r="D145" s="0" t="s">
@@ -7689,7 +7698,7 @@
       <c r="A146" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="1" t="n">
         <v>126200</v>
       </c>
       <c r="D146" s="0" t="s">
@@ -7709,7 +7718,7 @@
       <c r="A147" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="1" t="n">
         <v>126300</v>
       </c>
       <c r="D147" s="0" t="s">
@@ -7729,7 +7738,7 @@
       <c r="A148" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="1" t="n">
         <v>151100</v>
       </c>
       <c r="D148" s="0" t="s">
@@ -7749,7 +7758,7 @@
       <c r="A149" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" s="1" t="n">
         <v>151110</v>
       </c>
       <c r="D149" s="0" t="s">
@@ -7769,7 +7778,7 @@
       <c r="A150" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" s="1" t="n">
         <v>151120</v>
       </c>
       <c r="D150" s="0" t="s">
@@ -7789,7 +7798,7 @@
       <c r="A151" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" s="1" t="n">
         <v>151130</v>
       </c>
       <c r="D151" s="0" t="s">
@@ -7809,7 +7818,7 @@
       <c r="A152" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" s="1" t="n">
         <v>151140</v>
       </c>
       <c r="D152" s="0" t="s">
@@ -7829,7 +7838,7 @@
       <c r="A153" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153" s="1" t="n">
         <v>151150</v>
       </c>
       <c r="D153" s="0" t="s">
@@ -7849,7 +7858,7 @@
       <c r="A154" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154" s="1" t="n">
         <v>151170</v>
       </c>
       <c r="D154" s="0" t="s">
@@ -7869,7 +7878,7 @@
       <c r="A155" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155" s="1" t="n">
         <v>151180</v>
       </c>
       <c r="D155" s="0" t="s">
@@ -7889,7 +7898,7 @@
       <c r="A156" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" s="1" t="n">
         <v>151190</v>
       </c>
       <c r="D156" s="0" t="s">
@@ -7909,7 +7918,7 @@
       <c r="A157" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" s="1" t="n">
         <v>151200</v>
       </c>
       <c r="D157" s="0" t="s">
@@ -7929,7 +7938,7 @@
       <c r="A158" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158" s="1" t="n">
         <v>151210</v>
       </c>
       <c r="D158" s="0" t="s">
@@ -7949,7 +7958,7 @@
       <c r="A159" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" s="1" t="n">
         <v>151250</v>
       </c>
       <c r="D159" s="0" t="s">
@@ -7969,7 +7978,7 @@
       <c r="A160" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160" s="1" t="n">
         <v>151300</v>
       </c>
       <c r="D160" s="0" t="s">
@@ -7989,7 +7998,7 @@
       <c r="A161" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" s="1" t="n">
         <v>151320</v>
       </c>
       <c r="D161" s="0" t="s">
@@ -8009,7 +8018,7 @@
       <c r="A162" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162" s="1" t="n">
         <v>151340</v>
       </c>
       <c r="D162" s="0" t="s">
@@ -8029,7 +8038,7 @@
       <c r="A163" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163" s="1" t="n">
         <v>151360</v>
       </c>
       <c r="D163" s="0" t="s">
@@ -8049,7 +8058,7 @@
       <c r="A164" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164" s="1" t="n">
         <v>151380</v>
       </c>
       <c r="D164" s="0" t="s">
@@ -8069,7 +8078,7 @@
       <c r="A165" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165" s="1" t="n">
         <v>151400</v>
       </c>
       <c r="D165" s="0" t="s">
@@ -8089,7 +8098,7 @@
       <c r="A166" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166" s="1" t="n">
         <v>151410</v>
       </c>
       <c r="D166" s="0" t="s">
@@ -8109,7 +8118,7 @@
       <c r="A167" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167" s="1" t="n">
         <v>151420</v>
       </c>
       <c r="D167" s="0" t="s">
@@ -8129,7 +8138,7 @@
       <c r="A168" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168" s="1" t="n">
         <v>151430</v>
       </c>
       <c r="D168" s="0" t="s">
@@ -8149,7 +8158,7 @@
       <c r="A169" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169" s="1" t="n">
         <v>151440</v>
       </c>
       <c r="D169" s="0" t="s">
@@ -8169,7 +8178,7 @@
       <c r="A170" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170" s="1" t="n">
         <v>151500</v>
       </c>
       <c r="D170" s="0" t="s">
@@ -8189,7 +8198,7 @@
       <c r="A171" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171" s="1" t="n">
         <v>151510</v>
       </c>
       <c r="D171" s="0" t="s">
@@ -8209,7 +8218,7 @@
       <c r="A172" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172" s="1" t="n">
         <v>151520</v>
       </c>
       <c r="D172" s="0" t="s">
@@ -8229,7 +8238,7 @@
       <c r="A173" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173" s="1" t="n">
         <v>151530</v>
       </c>
       <c r="D173" s="0" t="s">
@@ -8249,7 +8258,7 @@
       <c r="A174" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174" s="1" t="n">
         <v>152100</v>
       </c>
       <c r="D174" s="0" t="s">
@@ -8269,7 +8278,7 @@
       <c r="A175" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175" s="1" t="n">
         <v>152110</v>
       </c>
       <c r="D175" s="0" t="s">
@@ -8289,7 +8298,7 @@
       <c r="A176" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176" s="1" t="n">
         <v>152120</v>
       </c>
       <c r="D176" s="0" t="s">
@@ -8309,7 +8318,7 @@
       <c r="A177" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177" s="1" t="n">
         <v>152130</v>
       </c>
       <c r="D177" s="0" t="s">
@@ -8329,7 +8338,7 @@
       <c r="A178" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178" s="1" t="n">
         <v>152140</v>
       </c>
       <c r="D178" s="0" t="s">
@@ -8349,7 +8358,7 @@
       <c r="A179" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179" s="1" t="n">
         <v>152150</v>
       </c>
       <c r="D179" s="0" t="s">
@@ -8369,7 +8378,7 @@
       <c r="A180" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180" s="1" t="n">
         <v>152160</v>
       </c>
       <c r="D180" s="0" t="s">
@@ -8389,7 +8398,7 @@
       <c r="A181" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181" s="1" t="n">
         <v>152170</v>
       </c>
       <c r="D181" s="0" t="s">
@@ -8409,7 +8418,7 @@
       <c r="A182" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182" s="1" t="n">
         <v>152180</v>
       </c>
       <c r="D182" s="0" t="s">
@@ -8429,7 +8438,7 @@
       <c r="A183" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183" s="1" t="n">
         <v>152200</v>
       </c>
       <c r="D183" s="0" t="s">
@@ -8449,7 +8458,7 @@
       <c r="A184" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184" s="1" t="n">
         <v>152210</v>
       </c>
       <c r="D184" s="0" t="s">
@@ -8469,7 +8478,7 @@
       <c r="A185" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185" s="1" t="n">
         <v>152220</v>
       </c>
       <c r="D185" s="0" t="s">
@@ -8489,7 +8498,7 @@
       <c r="A186" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186" s="1" t="n">
         <v>152230</v>
       </c>
       <c r="D186" s="0" t="s">
@@ -8509,7 +8518,7 @@
       <c r="A187" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187" s="1" t="n">
         <v>152300</v>
       </c>
       <c r="D187" s="0" t="s">
@@ -8529,7 +8538,7 @@
       <c r="A188" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188" s="1" t="n">
         <v>152310</v>
       </c>
       <c r="D188" s="0" t="s">
@@ -8549,7 +8558,7 @@
       <c r="A189" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189" s="1" t="n">
         <v>152320</v>
       </c>
       <c r="D189" s="0" t="s">
@@ -8569,7 +8578,7 @@
       <c r="A190" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C190" s="1" t="n">
         <v>152400</v>
       </c>
       <c r="D190" s="0" t="s">
@@ -8589,7 +8598,7 @@
       <c r="A191" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191" s="1" t="n">
         <v>152410</v>
       </c>
       <c r="D191" s="0" t="s">
@@ -8609,7 +8618,7 @@
       <c r="A192" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192" s="1" t="n">
         <v>152420</v>
       </c>
       <c r="D192" s="0" t="s">
@@ -8629,7 +8638,7 @@
       <c r="A193" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C193" s="1" t="n">
         <v>152430</v>
       </c>
       <c r="D193" s="0" t="s">
@@ -8649,7 +8658,7 @@
       <c r="A194" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194" s="1" t="n">
         <v>152500</v>
       </c>
       <c r="D194" s="0" t="s">
@@ -8669,7 +8678,7 @@
       <c r="A195" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195" s="1" t="n">
         <v>152550</v>
       </c>
       <c r="D195" s="0" t="s">
@@ -8689,7 +8698,7 @@
       <c r="A196" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196" s="1" t="n">
         <v>152600</v>
       </c>
       <c r="D196" s="0" t="s">
@@ -8709,7 +8718,7 @@
       <c r="A197" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197" s="1" t="n">
         <v>152650</v>
       </c>
       <c r="D197" s="0" t="s">
@@ -8729,7 +8738,7 @@
       <c r="A198" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198" s="1" t="n">
         <v>152700</v>
       </c>
       <c r="D198" s="0" t="s">
@@ -8749,7 +8758,7 @@
       <c r="A199" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199" s="1" t="n">
         <v>152750</v>
       </c>
       <c r="D199" s="0" t="s">
@@ -8769,7 +8778,7 @@
       <c r="A200" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200" s="1" t="n">
         <v>152800</v>
       </c>
       <c r="D200" s="0" t="s">
@@ -8789,7 +8798,7 @@
       <c r="A201" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201" s="1" t="n">
         <v>152850</v>
       </c>
       <c r="D201" s="0" t="s">
@@ -8809,7 +8818,7 @@
       <c r="A202" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202" s="1" t="n">
         <v>152900</v>
       </c>
       <c r="D202" s="0" t="s">
@@ -8829,7 +8838,7 @@
       <c r="A203" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203" s="1" t="n">
         <v>152950</v>
       </c>
       <c r="D203" s="0" t="s">
@@ -8849,7 +8858,7 @@
       <c r="A204" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204" s="1" t="n">
         <v>153010</v>
       </c>
       <c r="D204" s="0" t="s">
@@ -8869,7 +8878,7 @@
       <c r="A205" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205" s="1" t="n">
         <v>153020</v>
       </c>
       <c r="D205" s="0" t="s">
@@ -8889,7 +8898,7 @@
       <c r="A206" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206" s="1" t="n">
         <v>153030</v>
       </c>
       <c r="D206" s="0" t="s">
@@ -8909,7 +8918,7 @@
       <c r="A207" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C207" s="1" t="n">
         <v>153040</v>
       </c>
       <c r="D207" s="0" t="s">
@@ -8929,7 +8938,7 @@
       <c r="A208" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208" s="1" t="n">
         <v>153050</v>
       </c>
       <c r="D208" s="0" t="s">
@@ -8949,7 +8958,7 @@
       <c r="A209" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209" s="1" t="n">
         <v>153060</v>
       </c>
       <c r="D209" s="0" t="s">
@@ -8969,7 +8978,7 @@
       <c r="A210" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210" s="1" t="n">
         <v>153070</v>
       </c>
       <c r="D210" s="0" t="s">
@@ -8989,7 +8998,7 @@
       <c r="A211" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211" s="1" t="n">
         <v>153100</v>
       </c>
       <c r="D211" s="0" t="s">
@@ -9009,7 +9018,7 @@
       <c r="A212" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C212" s="1" t="n">
         <v>153110</v>
       </c>
       <c r="D212" s="0" t="s">
@@ -9029,7 +9038,7 @@
       <c r="A213" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213" s="1" t="n">
         <v>153120</v>
       </c>
       <c r="D213" s="0" t="s">
@@ -9049,7 +9058,7 @@
       <c r="A214" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214" s="1" t="n">
         <v>153140</v>
       </c>
       <c r="D214" s="0" t="s">
@@ -9069,7 +9078,7 @@
       <c r="A215" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="C215" s="0" t="n">
+      <c r="C215" s="1" t="n">
         <v>153150</v>
       </c>
       <c r="D215" s="0" t="s">
@@ -9089,7 +9098,7 @@
       <c r="A216" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C216" s="1" t="n">
         <v>153200</v>
       </c>
       <c r="D216" s="0" t="s">
@@ -9109,7 +9118,7 @@
       <c r="A217" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C217" s="1" t="n">
         <v>153250</v>
       </c>
       <c r="D217" s="0" t="s">
@@ -9129,7 +9138,7 @@
       <c r="A218" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C218" s="1" t="n">
         <v>153300</v>
       </c>
       <c r="D218" s="0" t="s">
@@ -9149,7 +9158,7 @@
       <c r="A219" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C219" s="1" t="n">
         <v>153310</v>
       </c>
       <c r="D219" s="0" t="s">
@@ -9169,7 +9178,7 @@
       <c r="A220" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="C220" s="0" t="n">
+      <c r="C220" s="1" t="n">
         <v>153330</v>
       </c>
       <c r="D220" s="0" t="s">
@@ -9189,7 +9198,7 @@
       <c r="A221" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="C221" s="0" t="n">
+      <c r="C221" s="1" t="n">
         <v>153340</v>
       </c>
       <c r="D221" s="0" t="s">
@@ -9209,7 +9218,7 @@
       <c r="A222" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="C222" s="0" t="n">
+      <c r="C222" s="1" t="n">
         <v>153400</v>
       </c>
       <c r="D222" s="0" t="s">
@@ -9229,7 +9238,7 @@
       <c r="A223" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="C223" s="0" t="n">
+      <c r="C223" s="1" t="n">
         <v>153410</v>
       </c>
       <c r="D223" s="0" t="s">
@@ -9249,7 +9258,7 @@
       <c r="A224" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="C224" s="0" t="n">
+      <c r="C224" s="1" t="n">
         <v>153420</v>
       </c>
       <c r="D224" s="0" t="s">
@@ -9269,7 +9278,7 @@
       <c r="A225" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C225" s="0" t="n">
+      <c r="C225" s="1" t="n">
         <v>153450</v>
       </c>
       <c r="D225" s="0" t="s">
@@ -9289,7 +9298,7 @@
       <c r="A226" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="C226" s="0" t="n">
+      <c r="C226" s="1" t="n">
         <v>153500</v>
       </c>
       <c r="D226" s="0" t="s">
@@ -9309,7 +9318,7 @@
       <c r="A227" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="C227" s="0" t="n">
+      <c r="C227" s="1" t="n">
         <v>153510</v>
       </c>
       <c r="D227" s="0" t="s">
@@ -9329,7 +9338,7 @@
       <c r="A228" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="C228" s="0" t="n">
+      <c r="C228" s="1" t="n">
         <v>153520</v>
       </c>
       <c r="D228" s="0" t="s">
@@ -9349,7 +9358,7 @@
       <c r="A229" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C229" s="0" t="n">
+      <c r="C229" s="1" t="n">
         <v>153530</v>
       </c>
       <c r="D229" s="0" t="s">
@@ -9369,7 +9378,7 @@
       <c r="A230" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="C230" s="0" t="n">
+      <c r="C230" s="1" t="n">
         <v>154100</v>
       </c>
       <c r="D230" s="0" t="s">
@@ -9389,7 +9398,7 @@
       <c r="A231" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="C231" s="0" t="n">
+      <c r="C231" s="1" t="n">
         <v>154300</v>
       </c>
       <c r="D231" s="0" t="s">
@@ -9409,7 +9418,7 @@
       <c r="A232" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C232" s="0" t="n">
+      <c r="C232" s="1" t="n">
         <v>154310</v>
       </c>
       <c r="D232" s="0" t="s">
@@ -9429,7 +9438,7 @@
       <c r="A233" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="C233" s="0" t="n">
+      <c r="C233" s="1" t="n">
         <v>154330</v>
       </c>
       <c r="D233" s="0" t="s">
@@ -9449,7 +9458,7 @@
       <c r="A234" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="C234" s="0" t="n">
+      <c r="C234" s="1" t="n">
         <v>154400</v>
       </c>
       <c r="D234" s="0" t="s">
@@ -9469,7 +9478,7 @@
       <c r="A235" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="C235" s="0" t="n">
+      <c r="C235" s="1" t="n">
         <v>154450</v>
       </c>
       <c r="D235" s="0" t="s">
@@ -9489,7 +9498,7 @@
       <c r="A236" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="C236" s="0" t="n">
+      <c r="C236" s="1" t="n">
         <v>155010</v>
       </c>
       <c r="D236" s="0" t="s">
@@ -9509,7 +9518,7 @@
       <c r="A237" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="C237" s="0" t="n">
+      <c r="C237" s="1" t="n">
         <v>155020</v>
       </c>
       <c r="D237" s="0" t="s">
@@ -9529,7 +9538,7 @@
       <c r="A238" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="C238" s="0" t="n">
+      <c r="C238" s="1" t="n">
         <v>155030</v>
       </c>
       <c r="D238" s="0" t="s">
@@ -9549,7 +9558,7 @@
       <c r="A239" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="C239" s="0" t="n">
+      <c r="C239" s="1" t="n">
         <v>155040</v>
       </c>
       <c r="D239" s="0" t="s">
@@ -9569,7 +9578,7 @@
       <c r="A240" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="C240" s="0" t="n">
+      <c r="C240" s="1" t="n">
         <v>155050</v>
       </c>
       <c r="D240" s="0" t="s">
@@ -9589,7 +9598,7 @@
       <c r="A241" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="C241" s="0" t="n">
+      <c r="C241" s="1" t="n">
         <v>155060</v>
       </c>
       <c r="D241" s="0" t="s">
@@ -9609,7 +9618,7 @@
       <c r="A242" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="C242" s="0" t="n">
+      <c r="C242" s="1" t="n">
         <v>155070</v>
       </c>
       <c r="D242" s="0" t="s">
@@ -9629,7 +9638,7 @@
       <c r="A243" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="C243" s="0" t="n">
+      <c r="C243" s="1" t="n">
         <v>155080</v>
       </c>
       <c r="D243" s="0" t="s">
@@ -9649,7 +9658,7 @@
       <c r="A244" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="C244" s="0" t="n">
+      <c r="C244" s="1" t="n">
         <v>155090</v>
       </c>
       <c r="D244" s="0" t="s">
@@ -9669,7 +9678,7 @@
       <c r="A245" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="C245" s="0" t="n">
+      <c r="C245" s="1" t="n">
         <v>155100</v>
       </c>
       <c r="D245" s="0" t="s">
@@ -9689,7 +9698,7 @@
       <c r="A246" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="C246" s="0" t="n">
+      <c r="C246" s="1" t="n">
         <v>155110</v>
       </c>
       <c r="D246" s="0" t="s">
@@ -9709,7 +9718,7 @@
       <c r="A247" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C247" s="0" t="n">
+      <c r="C247" s="1" t="n">
         <v>155120</v>
       </c>
       <c r="D247" s="0" t="s">
@@ -9729,7 +9738,7 @@
       <c r="A248" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="C248" s="0" t="n">
+      <c r="C248" s="1" t="n">
         <v>155130</v>
       </c>
       <c r="D248" s="0" t="s">
@@ -9749,7 +9758,7 @@
       <c r="A249" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C249" s="0" t="n">
+      <c r="C249" s="1" t="n">
         <v>155140</v>
       </c>
       <c r="D249" s="0" t="s">
@@ -9769,7 +9778,7 @@
       <c r="A250" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="C250" s="0" t="n">
+      <c r="C250" s="1" t="n">
         <v>155150</v>
       </c>
       <c r="D250" s="0" t="s">
@@ -9789,7 +9798,7 @@
       <c r="A251" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="C251" s="0" t="n">
+      <c r="C251" s="1" t="n">
         <v>155170</v>
       </c>
       <c r="D251" s="0" t="s">
@@ -9809,7 +9818,7 @@
       <c r="A252" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="C252" s="0" t="n">
+      <c r="C252" s="1" t="n">
         <v>155180</v>
       </c>
       <c r="D252" s="0" t="s">
@@ -9829,7 +9838,7 @@
       <c r="A253" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="C253" s="0" t="n">
+      <c r="C253" s="1" t="n">
         <v>155190</v>
       </c>
       <c r="D253" s="0" t="s">
@@ -9849,7 +9858,7 @@
       <c r="A254" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="C254" s="0" t="n">
+      <c r="C254" s="1" t="n">
         <v>155200</v>
       </c>
       <c r="D254" s="0" t="s">
@@ -9869,7 +9878,7 @@
       <c r="A255" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="C255" s="0" t="n">
+      <c r="C255" s="1" t="n">
         <v>155210</v>
       </c>
       <c r="D255" s="0" t="s">
@@ -9889,7 +9898,7 @@
       <c r="A256" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="C256" s="0" t="n">
+      <c r="C256" s="1" t="n">
         <v>155220</v>
       </c>
       <c r="D256" s="0" t="s">
@@ -9909,7 +9918,7 @@
       <c r="A257" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="C257" s="0" t="n">
+      <c r="C257" s="1" t="n">
         <v>155230</v>
       </c>
       <c r="D257" s="0" t="s">
@@ -9929,7 +9938,7 @@
       <c r="A258" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="C258" s="0" t="n">
+      <c r="C258" s="1" t="n">
         <v>155240</v>
       </c>
       <c r="D258" s="0" t="s">
@@ -9949,7 +9958,7 @@
       <c r="A259" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="C259" s="0" t="n">
+      <c r="C259" s="1" t="n">
         <v>155250</v>
       </c>
       <c r="D259" s="0" t="s">
@@ -9969,7 +9978,7 @@
       <c r="A260" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="C260" s="0" t="n">
+      <c r="C260" s="1" t="n">
         <v>155260</v>
       </c>
       <c r="D260" s="0" t="s">
@@ -9989,7 +9998,7 @@
       <c r="A261" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="C261" s="0" t="n">
+      <c r="C261" s="1" t="n">
         <v>155270</v>
       </c>
       <c r="D261" s="0" t="s">
@@ -10009,7 +10018,7 @@
       <c r="A262" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="C262" s="0" t="n">
+      <c r="C262" s="1" t="n">
         <v>180010</v>
       </c>
       <c r="D262" s="0" t="s">
@@ -10029,7 +10038,7 @@
       <c r="A263" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="C263" s="0" t="n">
+      <c r="C263" s="1" t="n">
         <v>180020</v>
       </c>
       <c r="D263" s="0" t="s">
@@ -10049,7 +10058,7 @@
       <c r="A264" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="C264" s="0" t="n">
+      <c r="C264" s="1" t="n">
         <v>180030</v>
       </c>
       <c r="D264" s="0" t="s">
@@ -10069,7 +10078,7 @@
       <c r="A265" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="C265" s="0" t="n">
+      <c r="C265" s="1" t="n">
         <v>180040</v>
       </c>
       <c r="D265" s="0" t="s">
@@ -10089,7 +10098,7 @@
       <c r="A266" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="C266" s="0" t="n">
+      <c r="C266" s="1" t="n">
         <v>180100</v>
       </c>
       <c r="D266" s="0" t="s">
@@ -10109,7 +10118,7 @@
       <c r="A267" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="C267" s="0" t="n">
+      <c r="C267" s="1" t="n">
         <v>180200</v>
       </c>
       <c r="D267" s="0" t="s">
@@ -10129,7 +10138,7 @@
       <c r="A268" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="C268" s="0" t="n">
+      <c r="C268" s="1" t="n">
         <v>180203</v>
       </c>
       <c r="D268" s="0" t="s">
@@ -10149,7 +10158,7 @@
       <c r="A269" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="C269" s="0" t="n">
+      <c r="C269" s="1" t="n">
         <v>180204</v>
       </c>
       <c r="D269" s="0" t="s">
@@ -10169,7 +10178,7 @@
       <c r="A270" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="C270" s="0" t="n">
+      <c r="C270" s="1" t="n">
         <v>180300</v>
       </c>
       <c r="D270" s="0" t="s">
@@ -10189,7 +10198,7 @@
       <c r="A271" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C271" s="0" t="n">
+      <c r="C271" s="1" t="n">
         <v>180301</v>
       </c>
       <c r="D271" s="0" t="s">
@@ -10209,7 +10218,7 @@
       <c r="A272" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="C272" s="0" t="n">
+      <c r="C272" s="1" t="n">
         <v>180302</v>
       </c>
       <c r="D272" s="0" t="s">
@@ -10229,7 +10238,7 @@
       <c r="A273" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="C273" s="0" t="n">
+      <c r="C273" s="1" t="n">
         <v>180303</v>
       </c>
       <c r="D273" s="0" t="s">
@@ -10249,7 +10258,7 @@
       <c r="A274" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="0" t="n">
+      <c r="C274" s="1" t="n">
         <v>180304</v>
       </c>
       <c r="D274" s="0" t="s">
@@ -10269,7 +10278,7 @@
       <c r="A275" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="C275" s="0" t="n">
+      <c r="C275" s="1" t="n">
         <v>180400</v>
       </c>
       <c r="D275" s="0" t="s">
@@ -10289,7 +10298,7 @@
       <c r="A276" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="C276" s="0" t="n">
+      <c r="C276" s="1" t="n">
         <v>190110</v>
       </c>
       <c r="D276" s="0" t="s">
@@ -10309,7 +10318,7 @@
       <c r="A277" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="C277" s="0" t="n">
+      <c r="C277" s="1" t="n">
         <v>190120</v>
       </c>
       <c r="D277" s="0" t="s">
@@ -10329,7 +10338,7 @@
       <c r="A278" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="C278" s="0" t="n">
+      <c r="C278" s="1" t="n">
         <v>211010</v>
       </c>
       <c r="D278" s="0" t="s">
@@ -10349,7 +10358,7 @@
       <c r="A279" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="C279" s="0" t="n">
+      <c r="C279" s="1" t="n">
         <v>211020</v>
       </c>
       <c r="D279" s="0" t="s">
@@ -10369,7 +10378,7 @@
       <c r="A280" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="C280" s="0" t="n">
+      <c r="C280" s="1" t="n">
         <v>211030</v>
       </c>
       <c r="D280" s="0" t="s">
@@ -10389,7 +10398,7 @@
       <c r="A281" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="C281" s="0" t="n">
+      <c r="C281" s="1" t="n">
         <v>211040</v>
       </c>
       <c r="D281" s="0" t="s">
@@ -10409,7 +10418,7 @@
       <c r="A282" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="C282" s="0" t="n">
+      <c r="C282" s="1" t="n">
         <v>212010</v>
       </c>
       <c r="D282" s="0" t="s">
@@ -10429,7 +10438,7 @@
       <c r="A283" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="C283" s="0" t="n">
+      <c r="C283" s="1" t="n">
         <v>213010</v>
       </c>
       <c r="D283" s="0" t="s">
@@ -10449,7 +10458,7 @@
       <c r="A284" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="C284" s="0" t="n">
+      <c r="C284" s="1" t="n">
         <v>214010</v>
       </c>
       <c r="D284" s="0" t="s">
@@ -10469,7 +10478,7 @@
       <c r="A285" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="C285" s="0" t="n">
+      <c r="C285" s="1" t="n">
         <v>215010</v>
       </c>
       <c r="D285" s="0" t="s">
@@ -10489,7 +10498,7 @@
       <c r="A286" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="C286" s="0" t="n">
+      <c r="C286" s="1" t="n">
         <v>216010</v>
       </c>
       <c r="D286" s="0" t="s">
@@ -10509,7 +10518,7 @@
       <c r="A287" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="C287" s="0" t="n">
+      <c r="C287" s="1" t="n">
         <v>217000</v>
       </c>
       <c r="D287" s="0" t="s">
@@ -10529,7 +10538,7 @@
       <c r="A288" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="C288" s="0" t="n">
+      <c r="C288" s="1" t="n">
         <v>217010</v>
       </c>
       <c r="D288" s="0" t="s">
@@ -10549,7 +10558,7 @@
       <c r="A289" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="C289" s="0" t="n">
+      <c r="C289" s="1" t="n">
         <v>217020</v>
       </c>
       <c r="D289" s="0" t="s">
@@ -10569,7 +10578,7 @@
       <c r="A290" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="C290" s="0" t="n">
+      <c r="C290" s="1" t="n">
         <v>217030</v>
       </c>
       <c r="D290" s="0" t="s">
@@ -10589,7 +10598,7 @@
       <c r="A291" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="C291" s="0" t="n">
+      <c r="C291" s="1" t="n">
         <v>217040</v>
       </c>
       <c r="D291" s="0" t="s">
@@ -10609,7 +10618,7 @@
       <c r="A292" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="C292" s="0" t="n">
+      <c r="C292" s="1" t="n">
         <v>217050</v>
       </c>
       <c r="D292" s="0" t="s">
@@ -10629,7 +10638,7 @@
       <c r="A293" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="C293" s="0" t="n">
+      <c r="C293" s="1" t="n">
         <v>217060</v>
       </c>
       <c r="D293" s="0" t="s">
@@ -10649,7 +10658,7 @@
       <c r="A294" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="C294" s="0" t="n">
+      <c r="C294" s="1" t="n">
         <v>217070</v>
       </c>
       <c r="D294" s="0" t="s">
@@ -10669,7 +10678,7 @@
       <c r="A295" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="C295" s="0" t="n">
+      <c r="C295" s="1" t="n">
         <v>217080</v>
       </c>
       <c r="D295" s="0" t="s">
@@ -10689,7 +10698,7 @@
       <c r="A296" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="C296" s="0" t="n">
+      <c r="C296" s="1" t="n">
         <v>217090</v>
       </c>
       <c r="D296" s="0" t="s">
@@ -10709,7 +10718,7 @@
       <c r="A297" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="C297" s="0" t="n">
+      <c r="C297" s="1" t="n">
         <v>217100</v>
       </c>
       <c r="D297" s="0" t="s">
@@ -10729,7 +10738,7 @@
       <c r="A298" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="C298" s="0" t="n">
+      <c r="C298" s="1" t="n">
         <v>217110</v>
       </c>
       <c r="D298" s="0" t="s">
@@ -10749,7 +10758,7 @@
       <c r="A299" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="C299" s="0" t="n">
+      <c r="C299" s="1" t="n">
         <v>217120</v>
       </c>
       <c r="D299" s="0" t="s">
@@ -10769,7 +10778,7 @@
       <c r="A300" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="C300" s="0" t="n">
+      <c r="C300" s="1" t="n">
         <v>217130</v>
       </c>
       <c r="D300" s="0" t="s">
@@ -10789,7 +10798,7 @@
       <c r="A301" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="C301" s="0" t="n">
+      <c r="C301" s="1" t="n">
         <v>218010</v>
       </c>
       <c r="D301" s="0" t="s">
@@ -10809,7 +10818,7 @@
       <c r="A302" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="C302" s="0" t="n">
+      <c r="C302" s="1" t="n">
         <v>219010</v>
       </c>
       <c r="D302" s="0" t="s">
@@ -10829,7 +10838,7 @@
       <c r="A303" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="C303" s="0" t="n">
+      <c r="C303" s="1" t="n">
         <v>219020</v>
       </c>
       <c r="D303" s="0" t="s">
@@ -10849,7 +10858,7 @@
       <c r="A304" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="C304" s="0" t="n">
+      <c r="C304" s="1" t="n">
         <v>219030</v>
       </c>
       <c r="D304" s="0" t="s">
@@ -10869,7 +10878,7 @@
       <c r="A305" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="C305" s="0" t="n">
+      <c r="C305" s="1" t="n">
         <v>220100</v>
       </c>
       <c r="D305" s="0" t="s">
@@ -10889,7 +10898,7 @@
       <c r="A306" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="C306" s="0" t="n">
+      <c r="C306" s="1" t="n">
         <v>220200</v>
       </c>
       <c r="D306" s="0" t="s">
@@ -10909,7 +10918,7 @@
       <c r="A307" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="C307" s="0" t="n">
+      <c r="C307" s="1" t="n">
         <v>220300</v>
       </c>
       <c r="D307" s="0" t="s">
@@ -10929,7 +10938,7 @@
       <c r="A308" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="C308" s="0" t="n">
+      <c r="C308" s="1" t="n">
         <v>220400</v>
       </c>
       <c r="D308" s="0" t="s">
@@ -10949,7 +10958,7 @@
       <c r="A309" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="C309" s="0" t="n">
+      <c r="C309" s="1" t="n">
         <v>220510</v>
       </c>
       <c r="D309" s="0" t="s">
@@ -10969,7 +10978,7 @@
       <c r="A310" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="C310" s="0" t="n">
+      <c r="C310" s="1" t="n">
         <v>220520</v>
       </c>
       <c r="D310" s="0" t="s">
@@ -10989,7 +10998,7 @@
       <c r="A311" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="C311" s="0" t="n">
+      <c r="C311" s="1" t="n">
         <v>220530</v>
       </c>
       <c r="D311" s="0" t="s">
@@ -11009,7 +11018,7 @@
       <c r="A312" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="C312" s="0" t="n">
+      <c r="C312" s="1" t="n">
         <v>220540</v>
       </c>
       <c r="D312" s="0" t="s">
@@ -11029,7 +11038,7 @@
       <c r="A313" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="C313" s="0" t="n">
+      <c r="C313" s="1" t="n">
         <v>220550</v>
       </c>
       <c r="D313" s="0" t="s">
@@ -11049,7 +11058,7 @@
       <c r="A314" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="C314" s="0" t="n">
+      <c r="C314" s="1" t="n">
         <v>220560</v>
       </c>
       <c r="D314" s="0" t="s">
@@ -11069,7 +11078,7 @@
       <c r="A315" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="C315" s="0" t="n">
+      <c r="C315" s="1" t="n">
         <v>230010</v>
       </c>
       <c r="D315" s="0" t="s">
@@ -11089,7 +11098,7 @@
       <c r="A316" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="C316" s="0" t="n">
+      <c r="C316" s="1" t="n">
         <v>240100</v>
       </c>
       <c r="D316" s="0" t="s">
@@ -11109,7 +11118,7 @@
       <c r="A317" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="C317" s="0" t="n">
+      <c r="C317" s="1" t="n">
         <v>240200</v>
       </c>
       <c r="D317" s="0" t="s">
@@ -11129,7 +11138,7 @@
       <c r="A318" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="C318" s="0" t="n">
+      <c r="C318" s="1" t="n">
         <v>240203</v>
       </c>
       <c r="D318" s="0" t="s">
@@ -11149,7 +11158,7 @@
       <c r="A319" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="C319" s="0" t="n">
+      <c r="C319" s="1" t="n">
         <v>240204</v>
       </c>
       <c r="D319" s="0" t="s">
@@ -11169,7 +11178,7 @@
       <c r="A320" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="C320" s="0" t="n">
+      <c r="C320" s="1" t="n">
         <v>240300</v>
       </c>
       <c r="D320" s="0" t="s">
@@ -11189,7 +11198,7 @@
       <c r="A321" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="C321" s="0" t="n">
+      <c r="C321" s="1" t="n">
         <v>240301</v>
       </c>
       <c r="D321" s="0" t="s">
@@ -11209,7 +11218,7 @@
       <c r="A322" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="C322" s="0" t="n">
+      <c r="C322" s="1" t="n">
         <v>240302</v>
       </c>
       <c r="D322" s="0" t="s">
@@ -11229,7 +11238,7 @@
       <c r="A323" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="C323" s="0" t="n">
+      <c r="C323" s="1" t="n">
         <v>240303</v>
       </c>
       <c r="D323" s="0" t="s">
@@ -11249,7 +11258,7 @@
       <c r="A324" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="C324" s="0" t="n">
+      <c r="C324" s="1" t="n">
         <v>240304</v>
       </c>
       <c r="D324" s="0" t="s">
@@ -11269,7 +11278,7 @@
       <c r="A325" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="C325" s="0" t="n">
+      <c r="C325" s="1" t="n">
         <v>240400</v>
       </c>
       <c r="D325" s="0" t="s">
@@ -11289,7 +11298,7 @@
       <c r="A326" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="C326" s="0" t="n">
+      <c r="C326" s="1" t="n">
         <v>240500</v>
       </c>
       <c r="D326" s="0" t="s">
@@ -11309,7 +11318,7 @@
       <c r="A327" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="C327" s="0" t="n">
+      <c r="C327" s="1" t="n">
         <v>241100</v>
       </c>
       <c r="D327" s="0" t="s">
@@ -11329,7 +11338,7 @@
       <c r="A328" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="C328" s="0" t="n">
+      <c r="C328" s="1" t="n">
         <v>242100</v>
       </c>
       <c r="D328" s="0" t="s">
@@ -11349,7 +11358,7 @@
       <c r="A329" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="C329" s="0" t="n">
+      <c r="C329" s="1" t="n">
         <v>243100</v>
       </c>
       <c r="D329" s="0" t="s">
@@ -11369,7 +11378,7 @@
       <c r="A330" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="C330" s="0" t="n">
+      <c r="C330" s="1" t="n">
         <v>244101</v>
       </c>
       <c r="D330" s="0" t="s">
@@ -11389,7 +11398,7 @@
       <c r="A331" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="C331" s="0" t="n">
+      <c r="C331" s="1" t="n">
         <v>244102</v>
       </c>
       <c r="D331" s="0" t="s">
@@ -11409,7 +11418,7 @@
       <c r="A332" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="C332" s="0" t="n">
+      <c r="C332" s="1" t="n">
         <v>245100</v>
       </c>
       <c r="D332" s="0" t="s">
@@ -11429,7 +11438,7 @@
       <c r="A333" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="C333" s="0" t="n">
+      <c r="C333" s="1" t="n">
         <v>245110</v>
       </c>
       <c r="D333" s="0" t="s">
@@ -11449,7 +11458,7 @@
       <c r="A334" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="C334" s="0" t="n">
+      <c r="C334" s="1" t="n">
         <v>245120</v>
       </c>
       <c r="D334" s="0" t="s">
@@ -11469,7 +11478,7 @@
       <c r="A335" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="C335" s="0" t="n">
+      <c r="C335" s="1" t="n">
         <v>245130</v>
       </c>
       <c r="D335" s="0" t="s">
@@ -11489,7 +11498,7 @@
       <c r="A336" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="C336" s="0" t="n">
+      <c r="C336" s="1" t="n">
         <v>245140</v>
       </c>
       <c r="D336" s="0" t="s">
@@ -11509,7 +11518,7 @@
       <c r="A337" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="C337" s="0" t="n">
+      <c r="C337" s="1" t="n">
         <v>245150</v>
       </c>
       <c r="D337" s="0" t="s">
@@ -11529,7 +11538,7 @@
       <c r="A338" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="C338" s="0" t="n">
+      <c r="C338" s="1" t="n">
         <v>246000</v>
       </c>
       <c r="D338" s="0" t="s">
@@ -11549,7 +11558,7 @@
       <c r="A339" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="C339" s="0" t="n">
+      <c r="C339" s="1" t="n">
         <v>246010</v>
       </c>
       <c r="D339" s="0" t="s">
@@ -11569,7 +11578,7 @@
       <c r="A340" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="C340" s="0" t="n">
+      <c r="C340" s="1" t="n">
         <v>246020</v>
       </c>
       <c r="D340" s="0" t="s">
@@ -11589,7 +11598,7 @@
       <c r="A341" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="C341" s="0" t="n">
+      <c r="C341" s="1" t="n">
         <v>246030</v>
       </c>
       <c r="D341" s="0" t="s">
@@ -11609,7 +11618,7 @@
       <c r="A342" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="C342" s="0" t="n">
+      <c r="C342" s="1" t="n">
         <v>247100</v>
       </c>
       <c r="D342" s="0" t="s">
@@ -11629,7 +11638,7 @@
       <c r="A343" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="C343" s="0" t="n">
+      <c r="C343" s="1" t="n">
         <v>247110</v>
       </c>
       <c r="D343" s="0" t="s">
@@ -11649,7 +11658,7 @@
       <c r="A344" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="C344" s="0" t="n">
+      <c r="C344" s="1" t="n">
         <v>247120</v>
       </c>
       <c r="D344" s="0" t="s">
@@ -11669,7 +11678,7 @@
       <c r="A345" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="C345" s="0" t="n">
+      <c r="C345" s="1" t="n">
         <v>247130</v>
       </c>
       <c r="D345" s="0" t="s">
@@ -11689,7 +11698,7 @@
       <c r="A346" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="C346" s="0" t="n">
+      <c r="C346" s="1" t="n">
         <v>247140</v>
       </c>
       <c r="D346" s="0" t="s">
@@ -11709,7 +11718,7 @@
       <c r="A347" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="C347" s="0" t="n">
+      <c r="C347" s="1" t="n">
         <v>247500</v>
       </c>
       <c r="D347" s="0" t="s">
@@ -11729,7 +11738,7 @@
       <c r="A348" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="C348" s="0" t="n">
+      <c r="C348" s="1" t="n">
         <v>247550</v>
       </c>
       <c r="D348" s="0" t="s">
@@ -11749,7 +11758,7 @@
       <c r="A349" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="C349" s="0" t="n">
+      <c r="C349" s="1" t="n">
         <v>247600</v>
       </c>
       <c r="D349" s="0" t="s">
@@ -11769,7 +11778,7 @@
       <c r="A350" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="C350" s="0" t="n">
+      <c r="C350" s="1" t="n">
         <v>247650</v>
       </c>
       <c r="D350" s="0" t="s">
@@ -11789,7 +11798,7 @@
       <c r="A351" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="C351" s="0" t="n">
+      <c r="C351" s="1" t="n">
         <v>247700</v>
       </c>
       <c r="D351" s="0" t="s">
@@ -11809,7 +11818,7 @@
       <c r="A352" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="C352" s="0" t="n">
+      <c r="C352" s="1" t="n">
         <v>247750</v>
       </c>
       <c r="D352" s="0" t="s">
@@ -11829,7 +11838,7 @@
       <c r="A353" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="C353" s="0" t="n">
+      <c r="C353" s="1" t="n">
         <v>247800</v>
       </c>
       <c r="D353" s="0" t="s">
@@ -11849,7 +11858,7 @@
       <c r="A354" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="C354" s="0" t="n">
+      <c r="C354" s="1" t="n">
         <v>247850</v>
       </c>
       <c r="D354" s="0" t="s">
@@ -11869,7 +11878,7 @@
       <c r="A355" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="C355" s="0" t="n">
+      <c r="C355" s="1" t="n">
         <v>247900</v>
       </c>
       <c r="D355" s="0" t="s">
@@ -11889,7 +11898,7 @@
       <c r="A356" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="C356" s="0" t="n">
+      <c r="C356" s="1" t="n">
         <v>247950</v>
       </c>
       <c r="D356" s="0" t="s">
@@ -11909,7 +11918,7 @@
       <c r="A357" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="C357" s="0" t="n">
+      <c r="C357" s="1" t="n">
         <v>250100</v>
       </c>
       <c r="D357" s="0" t="s">
@@ -11929,7 +11938,7 @@
       <c r="A358" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="C358" s="0" t="n">
+      <c r="C358" s="1" t="n">
         <v>250110</v>
       </c>
       <c r="D358" s="0" t="s">
@@ -11949,7 +11958,7 @@
       <c r="A359" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="C359" s="0" t="n">
+      <c r="C359" s="1" t="n">
         <v>250120</v>
       </c>
       <c r="D359" s="0" t="s">
@@ -11969,7 +11978,7 @@
       <c r="A360" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="C360" s="0" t="n">
+      <c r="C360" s="1" t="n">
         <v>250140</v>
       </c>
       <c r="D360" s="0" t="s">
@@ -11989,7 +11998,7 @@
       <c r="A361" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="C361" s="0" t="n">
+      <c r="C361" s="1" t="n">
         <v>250150</v>
       </c>
       <c r="D361" s="0" t="s">
@@ -12009,7 +12018,7 @@
       <c r="A362" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="C362" s="0" t="n">
+      <c r="C362" s="1" t="n">
         <v>250180</v>
       </c>
       <c r="D362" s="0" t="s">
@@ -12029,7 +12038,7 @@
       <c r="A363" s="0" t="s">
         <v>756</v>
       </c>
-      <c r="C363" s="0" t="n">
+      <c r="C363" s="1" t="n">
         <v>250190</v>
       </c>
       <c r="D363" s="0" t="s">
@@ -12049,7 +12058,7 @@
       <c r="A364" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="C364" s="0" t="n">
+      <c r="C364" s="1" t="n">
         <v>250200</v>
       </c>
       <c r="D364" s="0" t="s">
@@ -12069,7 +12078,7 @@
       <c r="A365" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="C365" s="0" t="n">
+      <c r="C365" s="1" t="n">
         <v>250300</v>
       </c>
       <c r="D365" s="0" t="s">
@@ -12089,7 +12098,7 @@
       <c r="A366" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="C366" s="0" t="n">
+      <c r="C366" s="1" t="n">
         <v>250310</v>
       </c>
       <c r="D366" s="0" t="s">
@@ -12109,7 +12118,7 @@
       <c r="A367" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="C367" s="0" t="n">
+      <c r="C367" s="1" t="n">
         <v>250320</v>
       </c>
       <c r="D367" s="0" t="s">
@@ -12129,7 +12138,7 @@
       <c r="A368" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="C368" s="0" t="n">
+      <c r="C368" s="1" t="n">
         <v>250400</v>
       </c>
       <c r="D368" s="0" t="s">
@@ -12149,7 +12158,7 @@
       <c r="A369" s="0" t="s">
         <v>768</v>
       </c>
-      <c r="C369" s="0" t="n">
+      <c r="C369" s="1" t="n">
         <v>260010</v>
       </c>
       <c r="D369" s="0" t="s">
@@ -12169,7 +12178,7 @@
       <c r="A370" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="C370" s="0" t="n">
+      <c r="C370" s="1" t="n">
         <v>260020</v>
       </c>
       <c r="D370" s="0" t="s">
@@ -12189,7 +12198,7 @@
       <c r="A371" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="C371" s="0" t="n">
+      <c r="C371" s="1" t="n">
         <v>260030</v>
       </c>
       <c r="D371" s="0" t="s">
@@ -12209,7 +12218,7 @@
       <c r="A372" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="C372" s="0" t="n">
+      <c r="C372" s="1" t="n">
         <v>260040</v>
       </c>
       <c r="D372" s="0" t="s">
@@ -12229,7 +12238,7 @@
       <c r="A373" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="C373" s="0" t="n">
+      <c r="C373" s="1" t="n">
         <v>260050</v>
       </c>
       <c r="D373" s="0" t="s">
@@ -12249,7 +12258,7 @@
       <c r="A374" s="0" t="s">
         <v>779</v>
       </c>
-      <c r="C374" s="0" t="n">
+      <c r="C374" s="1" t="n">
         <v>260060</v>
       </c>
       <c r="D374" s="0" t="s">
@@ -12269,7 +12278,7 @@
       <c r="A375" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="C375" s="0" t="n">
+      <c r="C375" s="1" t="n">
         <v>260100</v>
       </c>
       <c r="D375" s="0" t="s">
@@ -12289,7 +12298,7 @@
       <c r="A376" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="C376" s="0" t="n">
+      <c r="C376" s="1" t="n">
         <v>260110</v>
       </c>
       <c r="D376" s="0" t="s">
@@ -12309,7 +12318,7 @@
       <c r="A377" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="C377" s="0" t="n">
+      <c r="C377" s="1" t="n">
         <v>260200</v>
       </c>
       <c r="D377" s="0" t="s">
@@ -12329,7 +12338,7 @@
       <c r="A378" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="C378" s="0" t="n">
+      <c r="C378" s="1" t="n">
         <v>260210</v>
       </c>
       <c r="D378" s="0" t="s">
@@ -12349,7 +12358,7 @@
       <c r="A379" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="C379" s="0" t="n">
+      <c r="C379" s="1" t="n">
         <v>260300</v>
       </c>
       <c r="D379" s="0" t="s">
@@ -12369,7 +12378,7 @@
       <c r="A380" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="C380" s="0" t="n">
+      <c r="C380" s="1" t="n">
         <v>260310</v>
       </c>
       <c r="D380" s="0" t="s">
@@ -12389,7 +12398,7 @@
       <c r="A381" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="C381" s="0" t="n">
+      <c r="C381" s="1" t="n">
         <v>260311</v>
       </c>
       <c r="D381" s="0" t="s">
@@ -12409,7 +12418,7 @@
       <c r="A382" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="C382" s="0" t="n">
+      <c r="C382" s="1" t="n">
         <v>260312</v>
       </c>
       <c r="D382" s="0" t="s">
@@ -12429,7 +12438,7 @@
       <c r="A383" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="C383" s="0" t="n">
+      <c r="C383" s="1" t="n">
         <v>260313</v>
       </c>
       <c r="D383" s="0" t="s">
@@ -12449,7 +12458,7 @@
       <c r="A384" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="C384" s="0" t="n">
+      <c r="C384" s="1" t="n">
         <v>260314</v>
       </c>
       <c r="D384" s="0" t="s">
@@ -12469,7 +12478,7 @@
       <c r="A385" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="C385" s="0" t="n">
+      <c r="C385" s="1" t="n">
         <v>260316</v>
       </c>
       <c r="D385" s="0" t="s">
@@ -12489,7 +12498,7 @@
       <c r="A386" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="C386" s="0" t="n">
+      <c r="C386" s="1" t="n">
         <v>260317</v>
       </c>
       <c r="D386" s="0" t="s">
@@ -12509,7 +12518,7 @@
       <c r="A387" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="C387" s="0" t="n">
+      <c r="C387" s="1" t="n">
         <v>260400</v>
       </c>
       <c r="D387" s="0" t="s">
@@ -12529,7 +12538,7 @@
       <c r="A388" s="0" t="s">
         <v>807</v>
       </c>
-      <c r="C388" s="0" t="n">
+      <c r="C388" s="1" t="n">
         <v>260410</v>
       </c>
       <c r="D388" s="0" t="s">
@@ -12549,7 +12558,7 @@
       <c r="A389" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="C389" s="0" t="n">
+      <c r="C389" s="1" t="n">
         <v>260420</v>
       </c>
       <c r="D389" s="0" t="s">
@@ -12569,7 +12578,7 @@
       <c r="A390" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="C390" s="0" t="n">
+      <c r="C390" s="1" t="n">
         <v>260430</v>
       </c>
       <c r="D390" s="0" t="s">
@@ -12589,7 +12598,7 @@
       <c r="A391" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="C391" s="0" t="n">
+      <c r="C391" s="1" t="n">
         <v>260440</v>
       </c>
       <c r="D391" s="0" t="s">
@@ -12609,7 +12618,7 @@
       <c r="A392" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="C392" s="0" t="n">
+      <c r="C392" s="1" t="n">
         <v>260450</v>
       </c>
       <c r="D392" s="0" t="s">
@@ -12629,7 +12638,7 @@
       <c r="A393" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="C393" s="0" t="n">
+      <c r="C393" s="1" t="n">
         <v>265010</v>
       </c>
       <c r="D393" s="0" t="s">
@@ -12649,7 +12658,7 @@
       <c r="A394" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="C394" s="0" t="n">
+      <c r="C394" s="1" t="n">
         <v>265020</v>
       </c>
       <c r="D394" s="0" t="s">
@@ -12669,7 +12678,7 @@
       <c r="A395" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="C395" s="0" t="n">
+      <c r="C395" s="1" t="n">
         <v>265030</v>
       </c>
       <c r="D395" s="0" t="s">
@@ -12689,7 +12698,7 @@
       <c r="A396" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="C396" s="0" t="n">
+      <c r="C396" s="1" t="n">
         <v>265040</v>
       </c>
       <c r="D396" s="0" t="s">
@@ -12709,7 +12718,7 @@
       <c r="A397" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="C397" s="0" t="n">
+      <c r="C397" s="1" t="n">
         <v>265050</v>
       </c>
       <c r="D397" s="0" t="s">
@@ -12729,7 +12738,7 @@
       <c r="A398" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="C398" s="0" t="n">
+      <c r="C398" s="1" t="n">
         <v>265060</v>
       </c>
       <c r="D398" s="0" t="s">
@@ -12749,7 +12758,7 @@
       <c r="A399" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="C399" s="0" t="n">
+      <c r="C399" s="1" t="n">
         <v>265070</v>
       </c>
       <c r="D399" s="0" t="s">
@@ -12769,7 +12778,7 @@
       <c r="A400" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C400" s="0" t="n">
+      <c r="C400" s="1" t="n">
         <v>265080</v>
       </c>
       <c r="D400" s="0" t="s">
@@ -12789,7 +12798,7 @@
       <c r="A401" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="C401" s="0" t="n">
+      <c r="C401" s="1" t="n">
         <v>265090</v>
       </c>
       <c r="D401" s="0" t="s">
@@ -12809,7 +12818,7 @@
       <c r="A402" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="C402" s="0" t="n">
+      <c r="C402" s="1" t="n">
         <v>265100</v>
       </c>
       <c r="D402" s="0" t="s">
@@ -12829,7 +12838,7 @@
       <c r="A403" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="C403" s="0" t="n">
+      <c r="C403" s="1" t="n">
         <v>265110</v>
       </c>
       <c r="D403" s="0" t="s">
@@ -12849,7 +12858,7 @@
       <c r="A404" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="C404" s="0" t="n">
+      <c r="C404" s="1" t="n">
         <v>265120</v>
       </c>
       <c r="D404" s="0" t="s">
@@ -12869,7 +12878,7 @@
       <c r="A405" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="C405" s="0" t="n">
+      <c r="C405" s="1" t="n">
         <v>265130</v>
       </c>
       <c r="D405" s="0" t="s">
@@ -12889,7 +12898,7 @@
       <c r="A406" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="C406" s="0" t="n">
+      <c r="C406" s="1" t="n">
         <v>265140</v>
       </c>
       <c r="D406" s="0" t="s">
@@ -12909,7 +12918,7 @@
       <c r="A407" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="C407" s="0" t="n">
+      <c r="C407" s="1" t="n">
         <v>265150</v>
       </c>
       <c r="D407" s="0" t="s">
@@ -12929,7 +12938,7 @@
       <c r="A408" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="C408" s="0" t="n">
+      <c r="C408" s="1" t="n">
         <v>265170</v>
       </c>
       <c r="D408" s="0" t="s">
@@ -12949,7 +12958,7 @@
       <c r="A409" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="C409" s="0" t="n">
+      <c r="C409" s="1" t="n">
         <v>265180</v>
       </c>
       <c r="D409" s="0" t="s">
@@ -12969,7 +12978,7 @@
       <c r="A410" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="C410" s="0" t="n">
+      <c r="C410" s="1" t="n">
         <v>265190</v>
       </c>
       <c r="D410" s="0" t="s">
@@ -12989,7 +12998,7 @@
       <c r="A411" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="C411" s="0" t="n">
+      <c r="C411" s="1" t="n">
         <v>265200</v>
       </c>
       <c r="D411" s="0" t="s">
@@ -13009,7 +13018,7 @@
       <c r="A412" s="0" t="s">
         <v>856</v>
       </c>
-      <c r="C412" s="0" t="n">
+      <c r="C412" s="1" t="n">
         <v>265210</v>
       </c>
       <c r="D412" s="0" t="s">
@@ -13029,7 +13038,7 @@
       <c r="A413" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="C413" s="0" t="n">
+      <c r="C413" s="1" t="n">
         <v>265220</v>
       </c>
       <c r="D413" s="0" t="s">
@@ -13049,7 +13058,7 @@
       <c r="A414" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="C414" s="0" t="n">
+      <c r="C414" s="1" t="n">
         <v>265230</v>
       </c>
       <c r="D414" s="0" t="s">
@@ -13069,7 +13078,7 @@
       <c r="A415" s="0" t="s">
         <v>862</v>
       </c>
-      <c r="C415" s="0" t="n">
+      <c r="C415" s="1" t="n">
         <v>265240</v>
       </c>
       <c r="D415" s="0" t="s">
@@ -13089,7 +13098,7 @@
       <c r="A416" s="0" t="s">
         <v>864</v>
       </c>
-      <c r="C416" s="0" t="n">
+      <c r="C416" s="1" t="n">
         <v>265250</v>
       </c>
       <c r="D416" s="0" t="s">
@@ -13109,7 +13118,7 @@
       <c r="A417" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="C417" s="0" t="n">
+      <c r="C417" s="1" t="n">
         <v>265260</v>
       </c>
       <c r="D417" s="0" t="s">
@@ -13129,7 +13138,7 @@
       <c r="A418" s="0" t="s">
         <v>868</v>
       </c>
-      <c r="C418" s="0" t="n">
+      <c r="C418" s="1" t="n">
         <v>265270</v>
       </c>
       <c r="D418" s="0" t="s">
@@ -13149,7 +13158,7 @@
       <c r="A419" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="C419" s="0" t="n">
+      <c r="C419" s="1" t="n">
         <v>290010</v>
       </c>
       <c r="D419" s="0" t="s">
@@ -13169,7 +13178,7 @@
       <c r="A420" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="C420" s="0" t="n">
+      <c r="C420" s="1" t="n">
         <v>290020</v>
       </c>
       <c r="D420" s="0" t="s">
@@ -13189,7 +13198,7 @@
       <c r="A421" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="C421" s="0" t="n">
+      <c r="C421" s="1" t="n">
         <v>410010</v>
       </c>
       <c r="D421" s="0" t="s">
@@ -13209,7 +13218,7 @@
       <c r="A422" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="C422" s="0" t="n">
+      <c r="C422" s="1" t="n">
         <v>410020</v>
       </c>
       <c r="D422" s="0" t="s">
@@ -13229,7 +13238,7 @@
       <c r="A423" s="0" t="s">
         <v>880</v>
       </c>
-      <c r="C423" s="0" t="n">
+      <c r="C423" s="1" t="n">
         <v>410030</v>
       </c>
       <c r="D423" s="0" t="s">
@@ -13249,7 +13258,7 @@
       <c r="A424" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="C424" s="0" t="n">
+      <c r="C424" s="1" t="n">
         <v>410040</v>
       </c>
       <c r="D424" s="0" t="s">
@@ -13269,7 +13278,7 @@
       <c r="A425" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="C425" s="0" t="n">
+      <c r="C425" s="1" t="n">
         <v>410050</v>
       </c>
       <c r="D425" s="0" t="s">
@@ -13289,7 +13298,7 @@
       <c r="A426" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="C426" s="0" t="n">
+      <c r="C426" s="1" t="n">
         <v>420010</v>
       </c>
       <c r="D426" s="0" t="s">
@@ -13309,7 +13318,7 @@
       <c r="A427" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="C427" s="0" t="n">
+      <c r="C427" s="1" t="n">
         <v>430010</v>
       </c>
       <c r="D427" s="0" t="s">
@@ -13329,7 +13338,7 @@
       <c r="A428" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="C428" s="0" t="n">
+      <c r="C428" s="1" t="n">
         <v>430020</v>
       </c>
       <c r="D428" s="0" t="s">
@@ -13349,7 +13358,7 @@
       <c r="A429" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="C429" s="0" t="n">
+      <c r="C429" s="1" t="n">
         <v>430030</v>
       </c>
       <c r="D429" s="0" t="s">
@@ -13369,7 +13378,7 @@
       <c r="A430" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="C430" s="0" t="n">
+      <c r="C430" s="1" t="n">
         <v>430210</v>
       </c>
       <c r="D430" s="0" t="s">
@@ -13389,7 +13398,7 @@
       <c r="A431" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="C431" s="0" t="n">
+      <c r="C431" s="1" t="n">
         <v>430310</v>
       </c>
       <c r="D431" s="0" t="s">
@@ -13409,7 +13418,7 @@
       <c r="A432" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="C432" s="0" t="n">
+      <c r="C432" s="1" t="n">
         <v>490010</v>
       </c>
       <c r="D432" s="0" t="s">
@@ -13429,7 +13438,7 @@
       <c r="A433" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="C433" s="0" t="n">
+      <c r="C433" s="1" t="n">
         <v>490020</v>
       </c>
       <c r="D433" s="0" t="s">
@@ -13449,7 +13458,7 @@
       <c r="A434" s="0" t="s">
         <v>905</v>
       </c>
-      <c r="C434" s="0" t="n">
+      <c r="C434" s="1" t="n">
         <v>490030</v>
       </c>
       <c r="D434" s="0" t="s">
@@ -13465,26 +13474,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="1" t="s">
+    <row r="435" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="B435" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C435" s="1" t="n">
+      <c r="C435" s="3" t="n">
         <v>490050</v>
       </c>
-      <c r="D435" s="1" t="s">
+      <c r="D435" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E435" s="1" t="s">
+      <c r="E435" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F435" s="1" t="s">
+      <c r="F435" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="G435" s="1" t="n">
+      <c r="G435" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13492,7 +13501,7 @@
       <c r="A436" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="C436" s="0" t="n">
+      <c r="C436" s="1" t="n">
         <v>510000</v>
       </c>
       <c r="D436" s="0" t="s">
@@ -13512,7 +13521,7 @@
       <c r="A437" s="0" t="s">
         <v>914</v>
       </c>
-      <c r="C437" s="0" t="n">
+      <c r="C437" s="1" t="n">
         <v>510100</v>
       </c>
       <c r="D437" s="0" t="s">
@@ -13532,7 +13541,7 @@
       <c r="A438" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="C438" s="0" t="n">
+      <c r="C438" s="1" t="n">
         <v>510200</v>
       </c>
       <c r="D438" s="0" t="s">
@@ -13552,7 +13561,7 @@
       <c r="A439" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="C439" s="0" t="n">
+      <c r="C439" s="1" t="n">
         <v>510300</v>
       </c>
       <c r="D439" s="0" t="s">
@@ -13572,7 +13581,7 @@
       <c r="A440" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="C440" s="0" t="n">
+      <c r="C440" s="1" t="n">
         <v>510400</v>
       </c>
       <c r="D440" s="0" t="s">
@@ -13592,7 +13601,7 @@
       <c r="A441" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="C441" s="0" t="n">
+      <c r="C441" s="1" t="n">
         <v>510500</v>
       </c>
       <c r="D441" s="0" t="s">
@@ -13612,7 +13621,7 @@
       <c r="A442" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="C442" s="0" t="n">
+      <c r="C442" s="1" t="n">
         <v>511000</v>
       </c>
       <c r="D442" s="0" t="s">
@@ -13632,7 +13641,7 @@
       <c r="A443" s="0" t="s">
         <v>926</v>
       </c>
-      <c r="C443" s="0" t="n">
+      <c r="C443" s="1" t="n">
         <v>512000</v>
       </c>
       <c r="D443" s="0" t="s">
@@ -13652,7 +13661,7 @@
       <c r="A444" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="C444" s="0" t="n">
+      <c r="C444" s="1" t="n">
         <v>513000</v>
       </c>
       <c r="D444" s="0" t="s">
@@ -13672,7 +13681,7 @@
       <c r="A445" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="C445" s="0" t="n">
+      <c r="C445" s="1" t="n">
         <v>519000</v>
       </c>
       <c r="D445" s="0" t="s">
@@ -13692,7 +13701,7 @@
       <c r="A446" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="C446" s="0" t="n">
+      <c r="C446" s="1" t="n">
         <v>520100</v>
       </c>
       <c r="D446" s="0" t="s">
@@ -13712,7 +13721,7 @@
       <c r="A447" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="C447" s="0" t="n">
+      <c r="C447" s="1" t="n">
         <v>520150</v>
       </c>
       <c r="D447" s="0" t="s">
@@ -13732,7 +13741,7 @@
       <c r="A448" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="C448" s="0" t="n">
+      <c r="C448" s="1" t="n">
         <v>520200</v>
       </c>
       <c r="D448" s="0" t="s">
@@ -13752,7 +13761,7 @@
       <c r="A449" s="0" t="s">
         <v>939</v>
       </c>
-      <c r="C449" s="0" t="n">
+      <c r="C449" s="1" t="n">
         <v>520250</v>
       </c>
       <c r="D449" s="0" t="s">
@@ -13772,7 +13781,7 @@
       <c r="A450" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="C450" s="0" t="n">
+      <c r="C450" s="1" t="n">
         <v>520400</v>
       </c>
       <c r="D450" s="0" t="s">
@@ -13792,7 +13801,7 @@
       <c r="A451" s="0" t="s">
         <v>943</v>
       </c>
-      <c r="C451" s="0" t="n">
+      <c r="C451" s="1" t="n">
         <v>530310</v>
       </c>
       <c r="D451" s="0" t="s">
@@ -13812,7 +13821,7 @@
       <c r="A452" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="C452" s="0" t="n">
+      <c r="C452" s="1" t="n">
         <v>540130</v>
       </c>
       <c r="D452" s="0" t="s">
@@ -13832,7 +13841,7 @@
       <c r="A453" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="C453" s="0" t="n">
+      <c r="C453" s="1" t="n">
         <v>540210</v>
       </c>
       <c r="D453" s="0" t="s">
@@ -13852,7 +13861,7 @@
       <c r="A454" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="C454" s="0" t="n">
+      <c r="C454" s="1" t="n">
         <v>540220</v>
       </c>
       <c r="D454" s="0" t="s">
@@ -13872,7 +13881,7 @@
       <c r="A455" s="0" t="s">
         <v>953</v>
       </c>
-      <c r="C455" s="0" t="n">
+      <c r="C455" s="1" t="n">
         <v>540310</v>
       </c>
       <c r="D455" s="0" t="s">
@@ -13892,7 +13901,7 @@
       <c r="A456" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="C456" s="0" t="n">
+      <c r="C456" s="1" t="n">
         <v>540320</v>
       </c>
       <c r="D456" s="0" t="s">
@@ -13912,7 +13921,7 @@
       <c r="A457" s="0" t="s">
         <v>957</v>
       </c>
-      <c r="C457" s="0" t="n">
+      <c r="C457" s="1" t="n">
         <v>540330</v>
       </c>
       <c r="D457" s="0" t="s">
@@ -13932,7 +13941,7 @@
       <c r="A458" s="0" t="s">
         <v>959</v>
       </c>
-      <c r="C458" s="0" t="n">
+      <c r="C458" s="1" t="n">
         <v>540410</v>
       </c>
       <c r="D458" s="0" t="s">
@@ -13952,7 +13961,7 @@
       <c r="A459" s="0" t="s">
         <v>961</v>
       </c>
-      <c r="C459" s="0" t="n">
+      <c r="C459" s="1" t="n">
         <v>540420</v>
       </c>
       <c r="D459" s="0" t="s">
@@ -13972,7 +13981,7 @@
       <c r="A460" s="0" t="s">
         <v>963</v>
       </c>
-      <c r="C460" s="0" t="n">
+      <c r="C460" s="1" t="n">
         <v>540430</v>
       </c>
       <c r="D460" s="0" t="s">
@@ -13992,7 +14001,7 @@
       <c r="A461" s="0" t="s">
         <v>965</v>
       </c>
-      <c r="C461" s="0" t="n">
+      <c r="C461" s="1" t="n">
         <v>540600</v>
       </c>
       <c r="D461" s="0" t="s">
@@ -14012,7 +14021,7 @@
       <c r="A462" s="0" t="s">
         <v>967</v>
       </c>
-      <c r="C462" s="0" t="n">
+      <c r="C462" s="1" t="n">
         <v>540740</v>
       </c>
       <c r="D462" s="0" t="s">
@@ -14032,7 +14041,7 @@
       <c r="A463" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="C463" s="0" t="n">
+      <c r="C463" s="1" t="n">
         <v>540750</v>
       </c>
       <c r="D463" s="0" t="s">
@@ -14052,7 +14061,7 @@
       <c r="A464" s="0" t="s">
         <v>971</v>
       </c>
-      <c r="C464" s="0" t="n">
+      <c r="C464" s="1" t="n">
         <v>541100</v>
       </c>
       <c r="D464" s="0" t="s">
@@ -14072,7 +14081,7 @@
       <c r="A465" s="0" t="s">
         <v>973</v>
       </c>
-      <c r="C465" s="0" t="n">
+      <c r="C465" s="1" t="n">
         <v>541180</v>
       </c>
       <c r="D465" s="0" t="s">
@@ -14092,7 +14101,7 @@
       <c r="A466" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="C466" s="0" t="n">
+      <c r="C466" s="1" t="n">
         <v>541200</v>
       </c>
       <c r="D466" s="0" t="s">
@@ -14112,7 +14121,7 @@
       <c r="A467" s="0" t="s">
         <v>977</v>
       </c>
-      <c r="C467" s="0" t="n">
+      <c r="C467" s="1" t="n">
         <v>541300</v>
       </c>
       <c r="D467" s="0" t="s">
@@ -14132,7 +14141,7 @@
       <c r="A468" s="0" t="s">
         <v>979</v>
       </c>
-      <c r="C468" s="0" t="n">
+      <c r="C468" s="1" t="n">
         <v>541320</v>
       </c>
       <c r="D468" s="0" t="s">
@@ -14152,7 +14161,7 @@
       <c r="A469" s="0" t="s">
         <v>981</v>
       </c>
-      <c r="C469" s="0" t="n">
+      <c r="C469" s="1" t="n">
         <v>541340</v>
       </c>
       <c r="D469" s="0" t="s">
@@ -14172,7 +14181,7 @@
       <c r="A470" s="0" t="s">
         <v>983</v>
       </c>
-      <c r="C470" s="0" t="n">
+      <c r="C470" s="1" t="n">
         <v>541380</v>
       </c>
       <c r="D470" s="0" t="s">
@@ -14192,7 +14201,7 @@
       <c r="A471" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="C471" s="0" t="n">
+      <c r="C471" s="1" t="n">
         <v>541390</v>
       </c>
       <c r="D471" s="0" t="s">
@@ -14212,7 +14221,7 @@
       <c r="A472" s="0" t="s">
         <v>987</v>
       </c>
-      <c r="C472" s="0" t="n">
+      <c r="C472" s="1" t="n">
         <v>541510</v>
       </c>
       <c r="D472" s="0" t="s">
@@ -14232,7 +14241,7 @@
       <c r="A473" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="C473" s="0" t="n">
+      <c r="C473" s="1" t="n">
         <v>550070</v>
       </c>
       <c r="D473" s="0" t="s">
@@ -14252,7 +14261,7 @@
       <c r="A474" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="C474" s="0" t="n">
+      <c r="C474" s="1" t="n">
         <v>550110</v>
       </c>
       <c r="D474" s="0" t="s">
@@ -14272,7 +14281,7 @@
       <c r="A475" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="C475" s="0" t="n">
+      <c r="C475" s="1" t="n">
         <v>550120</v>
       </c>
       <c r="D475" s="0" t="s">
@@ -14292,7 +14301,7 @@
       <c r="A476" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="C476" s="0" t="n">
+      <c r="C476" s="1" t="n">
         <v>550210</v>
       </c>
       <c r="D476" s="0" t="s">
@@ -14312,7 +14321,7 @@
       <c r="A477" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="C477" s="0" t="n">
+      <c r="C477" s="1" t="n">
         <v>550220</v>
       </c>
       <c r="D477" s="0" t="s">
@@ -14332,7 +14341,7 @@
       <c r="A478" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="C478" s="0" t="n">
+      <c r="C478" s="1" t="n">
         <v>550230</v>
       </c>
       <c r="D478" s="0" t="s">
@@ -14352,7 +14361,7 @@
       <c r="A479" s="0" t="s">
         <v>1002</v>
       </c>
-      <c r="C479" s="0" t="n">
+      <c r="C479" s="1" t="n">
         <v>550510</v>
       </c>
       <c r="D479" s="0" t="s">
@@ -14372,7 +14381,7 @@
       <c r="A480" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="C480" s="0" t="n">
+      <c r="C480" s="1" t="n">
         <v>550520</v>
       </c>
       <c r="D480" s="0" t="s">
@@ -14392,7 +14401,7 @@
       <c r="A481" s="0" t="s">
         <v>1006</v>
       </c>
-      <c r="C481" s="0" t="n">
+      <c r="C481" s="1" t="n">
         <v>550530</v>
       </c>
       <c r="D481" s="0" t="s">
@@ -14412,7 +14421,7 @@
       <c r="A482" s="0" t="s">
         <v>1008</v>
       </c>
-      <c r="C482" s="0" t="n">
+      <c r="C482" s="1" t="n">
         <v>550540</v>
       </c>
       <c r="D482" s="0" t="s">
@@ -14432,7 +14441,7 @@
       <c r="A483" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="C483" s="0" t="n">
+      <c r="C483" s="1" t="n">
         <v>550550</v>
       </c>
       <c r="D483" s="0" t="s">
@@ -14452,7 +14461,7 @@
       <c r="A484" s="0" t="s">
         <v>1012</v>
       </c>
-      <c r="C484" s="0" t="n">
+      <c r="C484" s="1" t="n">
         <v>550560</v>
       </c>
       <c r="D484" s="0" t="s">
@@ -14472,7 +14481,7 @@
       <c r="A485" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="C485" s="0" t="n">
+      <c r="C485" s="1" t="n">
         <v>610100</v>
       </c>
       <c r="D485" s="0" t="s">
@@ -14492,7 +14501,7 @@
       <c r="A486" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="C486" s="0" t="n">
+      <c r="C486" s="1" t="n">
         <v>610110</v>
       </c>
       <c r="D486" s="0" t="s">
@@ -14512,7 +14521,7 @@
       <c r="A487" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="C487" s="0" t="n">
+      <c r="C487" s="1" t="n">
         <v>621120</v>
       </c>
       <c r="D487" s="0" t="s">
@@ -14532,7 +14541,7 @@
       <c r="A488" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="C488" s="0" t="n">
+      <c r="C488" s="1" t="n">
         <v>610140</v>
       </c>
       <c r="D488" s="0" t="s">
@@ -14552,7 +14561,7 @@
       <c r="A489" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="C489" s="0" t="n">
+      <c r="C489" s="1" t="n">
         <v>610200</v>
       </c>
       <c r="D489" s="0" t="s">
@@ -14572,7 +14581,7 @@
       <c r="A490" s="0" t="s">
         <v>1028</v>
       </c>
-      <c r="C490" s="0" t="n">
+      <c r="C490" s="1" t="n">
         <v>610250</v>
       </c>
       <c r="D490" s="0" t="s">
@@ -14592,7 +14601,7 @@
       <c r="A491" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="C491" s="0" t="n">
+      <c r="C491" s="1" t="n">
         <v>610300</v>
       </c>
       <c r="D491" s="0" t="s">
@@ -14612,7 +14621,7 @@
       <c r="A492" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="C492" s="0" t="n">
+      <c r="C492" s="1" t="n">
         <v>610400</v>
       </c>
       <c r="D492" s="0" t="s">
@@ -14632,7 +14641,7 @@
       <c r="A493" s="0" t="s">
         <v>1034</v>
       </c>
-      <c r="C493" s="0" t="n">
+      <c r="C493" s="1" t="n">
         <v>610500</v>
       </c>
       <c r="D493" s="0" t="s">
@@ -14652,7 +14661,7 @@
       <c r="A494" s="0" t="s">
         <v>1036</v>
       </c>
-      <c r="C494" s="0" t="n">
+      <c r="C494" s="1" t="n">
         <v>620300</v>
       </c>
       <c r="D494" s="0" t="s">
@@ -14672,7 +14681,7 @@
       <c r="A495" s="0" t="s">
         <v>1038</v>
       </c>
-      <c r="C495" s="0" t="n">
+      <c r="C495" s="1" t="n">
         <v>621110</v>
       </c>
       <c r="D495" s="0" t="s">
@@ -14692,7 +14701,7 @@
       <c r="A496" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="C496" s="0" t="n">
+      <c r="C496" s="1" t="n">
         <v>621120</v>
       </c>
       <c r="D496" s="0" t="s">
@@ -14712,7 +14721,7 @@
       <c r="A497" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="C497" s="0" t="n">
+      <c r="C497" s="1" t="n">
         <v>621130</v>
       </c>
       <c r="D497" s="0" t="s">
@@ -14732,7 +14741,7 @@
       <c r="A498" s="0" t="s">
         <v>1042</v>
       </c>
-      <c r="C498" s="0" t="n">
+      <c r="C498" s="1" t="n">
         <v>621140</v>
       </c>
       <c r="D498" s="0" t="s">
@@ -14752,7 +14761,7 @@
       <c r="A499" s="0" t="s">
         <v>1044</v>
       </c>
-      <c r="C499" s="0" t="n">
+      <c r="C499" s="1" t="n">
         <v>621200</v>
       </c>
       <c r="D499" s="0" t="s">
@@ -14772,7 +14781,7 @@
       <c r="A500" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="C500" s="0" t="n">
+      <c r="C500" s="1" t="n">
         <v>621210</v>
       </c>
       <c r="D500" s="0" t="s">
@@ -14792,7 +14801,7 @@
       <c r="A501" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="C501" s="0" t="n">
+      <c r="C501" s="1" t="n">
         <v>621220</v>
       </c>
       <c r="D501" s="0" t="s">
@@ -14812,7 +14821,7 @@
       <c r="A502" s="0" t="s">
         <v>1050</v>
       </c>
-      <c r="C502" s="0" t="n">
+      <c r="C502" s="1" t="n">
         <v>621250</v>
       </c>
       <c r="D502" s="0" t="s">
@@ -14832,7 +14841,7 @@
       <c r="A503" s="0" t="s">
         <v>1052</v>
       </c>
-      <c r="C503" s="0" t="n">
+      <c r="C503" s="1" t="n">
         <v>621300</v>
       </c>
       <c r="D503" s="0" t="s">
@@ -14852,7 +14861,7 @@
       <c r="A504" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="C504" s="0" t="n">
+      <c r="C504" s="1" t="n">
         <v>621310</v>
       </c>
       <c r="D504" s="0" t="s">
@@ -14872,7 +14881,7 @@
       <c r="A505" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="C505" s="0" t="n">
+      <c r="C505" s="1" t="n">
         <v>621320</v>
       </c>
       <c r="D505" s="0" t="s">
@@ -14892,7 +14901,7 @@
       <c r="A506" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="C506" s="0" t="n">
+      <c r="C506" s="1" t="n">
         <v>621330</v>
       </c>
       <c r="D506" s="0" t="s">
@@ -14912,7 +14921,7 @@
       <c r="A507" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="C507" s="0" t="n">
+      <c r="C507" s="1" t="n">
         <v>621340</v>
       </c>
       <c r="D507" s="0" t="s">
@@ -14932,7 +14941,7 @@
       <c r="A508" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="C508" s="0" t="n">
+      <c r="C508" s="1" t="n">
         <v>621350</v>
       </c>
       <c r="D508" s="0" t="s">
@@ -14952,7 +14961,7 @@
       <c r="A509" s="0" t="s">
         <v>1064</v>
       </c>
-      <c r="C509" s="0" t="n">
+      <c r="C509" s="1" t="n">
         <v>621360</v>
       </c>
       <c r="D509" s="0" t="s">
@@ -14972,7 +14981,7 @@
       <c r="A510" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="C510" s="0" t="n">
+      <c r="C510" s="1" t="n">
         <v>621400</v>
       </c>
       <c r="D510" s="0" t="s">
@@ -14992,7 +15001,7 @@
       <c r="A511" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="C511" s="0" t="n">
+      <c r="C511" s="1" t="n">
         <v>621410</v>
       </c>
       <c r="D511" s="0" t="s">
@@ -15012,7 +15021,7 @@
       <c r="A512" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="C512" s="0" t="n">
+      <c r="C512" s="1" t="n">
         <v>621500</v>
       </c>
       <c r="D512" s="0" t="s">
@@ -15032,7 +15041,7 @@
       <c r="A513" s="0" t="s">
         <v>1072</v>
       </c>
-      <c r="C513" s="0" t="n">
+      <c r="C513" s="1" t="n">
         <v>621510</v>
       </c>
       <c r="D513" s="0" t="s">
@@ -15052,7 +15061,7 @@
       <c r="A514" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="C514" s="0" t="n">
+      <c r="C514" s="1" t="n">
         <v>621520</v>
       </c>
       <c r="D514" s="0" t="s">
@@ -15072,7 +15081,7 @@
       <c r="A515" s="0" t="s">
         <v>1076</v>
       </c>
-      <c r="C515" s="0" t="n">
+      <c r="C515" s="1" t="n">
         <v>621530</v>
       </c>
       <c r="D515" s="0" t="s">
@@ -15092,7 +15101,7 @@
       <c r="A516" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="C516" s="0" t="n">
+      <c r="C516" s="1" t="n">
         <v>621550</v>
       </c>
       <c r="D516" s="0" t="s">
@@ -15112,7 +15121,7 @@
       <c r="A517" s="0" t="s">
         <v>1080</v>
       </c>
-      <c r="C517" s="0" t="n">
+      <c r="C517" s="1" t="n">
         <v>621600</v>
       </c>
       <c r="D517" s="0" t="s">
@@ -15132,7 +15141,7 @@
       <c r="A518" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="C518" s="0" t="n">
+      <c r="C518" s="1" t="n">
         <v>621610</v>
       </c>
       <c r="D518" s="0" t="s">
@@ -15152,7 +15161,7 @@
       <c r="A519" s="0" t="s">
         <v>1084</v>
       </c>
-      <c r="C519" s="0" t="n">
+      <c r="C519" s="1" t="n">
         <v>621620</v>
       </c>
       <c r="D519" s="0" t="s">
@@ -15172,7 +15181,7 @@
       <c r="A520" s="0" t="s">
         <v>1086</v>
       </c>
-      <c r="C520" s="0" t="n">
+      <c r="C520" s="1" t="n">
         <v>621630</v>
       </c>
       <c r="D520" s="0" t="s">
@@ -15192,7 +15201,7 @@
       <c r="A521" s="0" t="s">
         <v>1088</v>
       </c>
-      <c r="C521" s="0" t="n">
+      <c r="C521" s="1" t="n">
         <v>621640</v>
       </c>
       <c r="D521" s="0" t="s">
@@ -15212,7 +15221,7 @@
       <c r="A522" s="0" t="s">
         <v>1090</v>
       </c>
-      <c r="C522" s="0" t="n">
+      <c r="C522" s="1" t="n">
         <v>621650</v>
       </c>
       <c r="D522" s="0" t="s">
@@ -15232,7 +15241,7 @@
       <c r="A523" s="0" t="s">
         <v>1092</v>
       </c>
-      <c r="C523" s="0" t="n">
+      <c r="C523" s="1" t="n">
         <v>622100</v>
       </c>
       <c r="D523" s="0" t="s">
@@ -15252,7 +15261,7 @@
       <c r="A524" s="0" t="s">
         <v>1094</v>
       </c>
-      <c r="C524" s="0" t="n">
+      <c r="C524" s="1" t="n">
         <v>622110</v>
       </c>
       <c r="D524" s="0" t="s">
@@ -15272,7 +15281,7 @@
       <c r="A525" s="0" t="s">
         <v>1096</v>
       </c>
-      <c r="C525" s="0" t="n">
+      <c r="C525" s="1" t="n">
         <v>622120</v>
       </c>
       <c r="D525" s="0" t="s">
@@ -15292,7 +15301,7 @@
       <c r="A526" s="0" t="s">
         <v>1098</v>
       </c>
-      <c r="C526" s="0" t="n">
+      <c r="C526" s="1" t="n">
         <v>622130</v>
       </c>
       <c r="D526" s="0" t="s">
@@ -15312,7 +15321,7 @@
       <c r="A527" s="0" t="s">
         <v>1100</v>
       </c>
-      <c r="C527" s="0" t="n">
+      <c r="C527" s="1" t="n">
         <v>622200</v>
       </c>
       <c r="D527" s="0" t="s">
@@ -15332,7 +15341,7 @@
       <c r="A528" s="0" t="s">
         <v>1102</v>
       </c>
-      <c r="C528" s="0" t="n">
+      <c r="C528" s="1" t="n">
         <v>622210</v>
       </c>
       <c r="D528" s="0" t="s">
@@ -15352,7 +15361,7 @@
       <c r="A529" s="0" t="s">
         <v>1104</v>
       </c>
-      <c r="C529" s="0" t="n">
+      <c r="C529" s="1" t="n">
         <v>623100</v>
       </c>
       <c r="D529" s="0" t="s">
@@ -15372,7 +15381,7 @@
       <c r="A530" s="0" t="s">
         <v>1106</v>
       </c>
-      <c r="C530" s="0" t="n">
+      <c r="C530" s="1" t="n">
         <v>623110</v>
       </c>
       <c r="D530" s="0" t="s">
@@ -15392,7 +15401,7 @@
       <c r="A531" s="0" t="s">
         <v>1108</v>
       </c>
-      <c r="C531" s="0" t="n">
+      <c r="C531" s="1" t="n">
         <v>623120</v>
       </c>
       <c r="D531" s="0" t="s">
@@ -15412,7 +15421,7 @@
       <c r="A532" s="0" t="s">
         <v>1110</v>
       </c>
-      <c r="C532" s="0" t="n">
+      <c r="C532" s="1" t="n">
         <v>623130</v>
       </c>
       <c r="D532" s="0" t="s">
@@ -15432,7 +15441,7 @@
       <c r="A533" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="C533" s="0" t="n">
+      <c r="C533" s="1" t="n">
         <v>623140</v>
       </c>
       <c r="D533" s="0" t="s">
@@ -15452,7 +15461,7 @@
       <c r="A534" s="0" t="s">
         <v>1114</v>
       </c>
-      <c r="C534" s="0" t="n">
+      <c r="C534" s="1" t="n">
         <v>623200</v>
       </c>
       <c r="D534" s="0" t="s">
@@ -15472,7 +15481,7 @@
       <c r="A535" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="C535" s="0" t="n">
+      <c r="C535" s="1" t="n">
         <v>623210</v>
       </c>
       <c r="D535" s="0" t="s">
@@ -15492,7 +15501,7 @@
       <c r="A536" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="C536" s="0" t="n">
+      <c r="C536" s="1" t="n">
         <v>623300</v>
       </c>
       <c r="D536" s="0" t="s">
@@ -15512,7 +15521,7 @@
       <c r="A537" s="0" t="s">
         <v>1120</v>
       </c>
-      <c r="C537" s="0" t="n">
+      <c r="C537" s="1" t="n">
         <v>623310</v>
       </c>
       <c r="D537" s="0" t="s">
@@ -15532,7 +15541,7 @@
       <c r="A538" s="0" t="s">
         <v>1122</v>
       </c>
-      <c r="C538" s="0" t="n">
+      <c r="C538" s="1" t="n">
         <v>623320</v>
       </c>
       <c r="D538" s="0" t="s">
@@ -15552,7 +15561,7 @@
       <c r="A539" s="0" t="s">
         <v>1124</v>
       </c>
-      <c r="C539" s="0" t="n">
+      <c r="C539" s="1" t="n">
         <v>623330</v>
       </c>
       <c r="D539" s="0" t="s">
@@ -15572,7 +15581,7 @@
       <c r="A540" s="0" t="s">
         <v>1126</v>
       </c>
-      <c r="C540" s="0" t="n">
+      <c r="C540" s="1" t="n">
         <v>623340</v>
       </c>
       <c r="D540" s="0" t="s">
@@ -15592,7 +15601,7 @@
       <c r="A541" s="0" t="s">
         <v>1128</v>
       </c>
-      <c r="C541" s="0" t="n">
+      <c r="C541" s="1" t="n">
         <v>623350</v>
       </c>
       <c r="D541" s="0" t="s">
@@ -15612,7 +15621,7 @@
       <c r="A542" s="0" t="s">
         <v>1130</v>
       </c>
-      <c r="C542" s="0" t="n">
+      <c r="C542" s="1" t="n">
         <v>623360</v>
       </c>
       <c r="D542" s="0" t="s">
@@ -15632,7 +15641,7 @@
       <c r="A543" s="0" t="s">
         <v>1132</v>
       </c>
-      <c r="C543" s="0" t="n">
+      <c r="C543" s="1" t="n">
         <v>623400</v>
       </c>
       <c r="D543" s="0" t="s">
@@ -15652,7 +15661,7 @@
       <c r="A544" s="0" t="s">
         <v>1134</v>
       </c>
-      <c r="C544" s="0" t="n">
+      <c r="C544" s="1" t="n">
         <v>623410</v>
       </c>
       <c r="D544" s="0" t="s">
@@ -15672,7 +15681,7 @@
       <c r="A545" s="0" t="s">
         <v>1136</v>
       </c>
-      <c r="C545" s="0" t="n">
+      <c r="C545" s="1" t="n">
         <v>623420</v>
       </c>
       <c r="D545" s="0" t="s">
@@ -15692,7 +15701,7 @@
       <c r="A546" s="0" t="s">
         <v>1138</v>
       </c>
-      <c r="C546" s="0" t="n">
+      <c r="C546" s="1" t="n">
         <v>623430</v>
       </c>
       <c r="D546" s="0" t="s">
@@ -15712,7 +15721,7 @@
       <c r="A547" s="0" t="s">
         <v>1140</v>
       </c>
-      <c r="C547" s="0" t="n">
+      <c r="C547" s="1" t="n">
         <v>623440</v>
       </c>
       <c r="D547" s="0" t="s">
@@ -15732,7 +15741,7 @@
       <c r="A548" s="0" t="s">
         <v>1142</v>
       </c>
-      <c r="C548" s="0" t="n">
+      <c r="C548" s="1" t="n">
         <v>623450</v>
       </c>
       <c r="D548" s="0" t="s">
@@ -15752,7 +15761,7 @@
       <c r="A549" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="C549" s="0" t="n">
+      <c r="C549" s="1" t="n">
         <v>623470</v>
       </c>
       <c r="D549" s="0" t="s">
@@ -15772,7 +15781,7 @@
       <c r="A550" s="0" t="s">
         <v>1145</v>
       </c>
-      <c r="C550" s="0" t="n">
+      <c r="C550" s="1" t="n">
         <v>623460</v>
       </c>
       <c r="D550" s="0" t="s">
@@ -15792,7 +15801,7 @@
       <c r="A551" s="0" t="s">
         <v>1147</v>
       </c>
-      <c r="C551" s="0" t="n">
+      <c r="C551" s="1" t="n">
         <v>623490</v>
       </c>
       <c r="D551" s="0" t="s">
@@ -15812,7 +15821,7 @@
       <c r="A552" s="0" t="s">
         <v>1149</v>
       </c>
-      <c r="C552" s="0" t="n">
+      <c r="C552" s="1" t="n">
         <v>623500</v>
       </c>
       <c r="D552" s="0" t="s">
@@ -15832,7 +15841,7 @@
       <c r="A553" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="C553" s="0" t="n">
+      <c r="C553" s="1" t="n">
         <v>623510</v>
       </c>
       <c r="D553" s="0" t="s">
@@ -15852,7 +15861,7 @@
       <c r="A554" s="0" t="s">
         <v>1153</v>
       </c>
-      <c r="C554" s="0" t="n">
+      <c r="C554" s="1" t="n">
         <v>623520</v>
       </c>
       <c r="D554" s="0" t="s">
@@ -15872,7 +15881,7 @@
       <c r="A555" s="0" t="s">
         <v>1155</v>
       </c>
-      <c r="C555" s="0" t="n">
+      <c r="C555" s="1" t="n">
         <v>623530</v>
       </c>
       <c r="D555" s="0" t="s">
@@ -15892,7 +15901,7 @@
       <c r="A556" s="0" t="s">
         <v>1157</v>
       </c>
-      <c r="C556" s="0" t="n">
+      <c r="C556" s="1" t="n">
         <v>623550</v>
       </c>
       <c r="D556" s="0" t="s">
@@ -15912,7 +15921,7 @@
       <c r="A557" s="0" t="s">
         <v>1159</v>
       </c>
-      <c r="C557" s="0" t="n">
+      <c r="C557" s="1" t="n">
         <v>623560</v>
       </c>
       <c r="D557" s="0" t="s">
@@ -15932,7 +15941,7 @@
       <c r="A558" s="0" t="s">
         <v>1161</v>
       </c>
-      <c r="C558" s="0" t="n">
+      <c r="C558" s="1" t="n">
         <v>623570</v>
       </c>
       <c r="D558" s="0" t="s">
@@ -15952,7 +15961,7 @@
       <c r="A559" s="0" t="s">
         <v>1163</v>
       </c>
-      <c r="C559" s="0" t="n">
+      <c r="C559" s="1" t="n">
         <v>623580</v>
       </c>
       <c r="D559" s="0" t="s">
@@ -15972,7 +15981,7 @@
       <c r="A560" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="C560" s="0" t="n">
+      <c r="C560" s="1" t="n">
         <v>623590</v>
       </c>
       <c r="D560" s="0" t="s">
@@ -15992,7 +16001,7 @@
       <c r="A561" s="0" t="s">
         <v>1167</v>
       </c>
-      <c r="C561" s="0" t="n">
+      <c r="C561" s="1" t="n">
         <v>623600</v>
       </c>
       <c r="D561" s="0" t="s">
@@ -16012,7 +16021,7 @@
       <c r="A562" s="0" t="s">
         <v>1169</v>
       </c>
-      <c r="C562" s="0" t="n">
+      <c r="C562" s="1" t="n">
         <v>625010</v>
       </c>
       <c r="D562" s="0" t="s">
@@ -16032,7 +16041,7 @@
       <c r="A563" s="0" t="s">
         <v>1171</v>
       </c>
-      <c r="C563" s="0" t="n">
+      <c r="C563" s="1" t="n">
         <v>625020</v>
       </c>
       <c r="D563" s="0" t="s">
@@ -16052,7 +16061,7 @@
       <c r="A564" s="0" t="s">
         <v>1173</v>
       </c>
-      <c r="C564" s="0" t="n">
+      <c r="C564" s="1" t="n">
         <v>625030</v>
       </c>
       <c r="D564" s="0" t="s">
@@ -16072,7 +16081,7 @@
       <c r="A565" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="C565" s="0" t="n">
+      <c r="C565" s="1" t="n">
         <v>625040</v>
       </c>
       <c r="D565" s="0" t="s">
@@ -16092,7 +16101,7 @@
       <c r="A566" s="0" t="s">
         <v>1177</v>
       </c>
-      <c r="C566" s="0" t="n">
+      <c r="C566" s="1" t="n">
         <v>625050</v>
       </c>
       <c r="D566" s="0" t="s">
@@ -16112,7 +16121,7 @@
       <c r="A567" s="0" t="s">
         <v>1179</v>
       </c>
-      <c r="C567" s="0" t="n">
+      <c r="C567" s="1" t="n">
         <v>625060</v>
       </c>
       <c r="D567" s="0" t="s">
@@ -16132,7 +16141,7 @@
       <c r="A568" s="0" t="s">
         <v>1181</v>
       </c>
-      <c r="C568" s="0" t="n">
+      <c r="C568" s="1" t="n">
         <v>625070</v>
       </c>
       <c r="D568" s="0" t="s">
@@ -16152,7 +16161,7 @@
       <c r="A569" s="0" t="s">
         <v>1183</v>
       </c>
-      <c r="C569" s="0" t="n">
+      <c r="C569" s="1" t="n">
         <v>625080</v>
       </c>
       <c r="D569" s="0" t="s">
@@ -16172,7 +16181,7 @@
       <c r="A570" s="0" t="s">
         <v>1185</v>
       </c>
-      <c r="C570" s="0" t="n">
+      <c r="C570" s="1" t="n">
         <v>625100</v>
       </c>
       <c r="D570" s="0" t="s">
@@ -16192,7 +16201,7 @@
       <c r="A571" s="0" t="s">
         <v>1187</v>
       </c>
-      <c r="C571" s="0" t="n">
+      <c r="C571" s="1" t="n">
         <v>625120</v>
       </c>
       <c r="D571" s="0" t="s">
@@ -16212,7 +16221,7 @@
       <c r="A572" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="C572" s="0" t="n">
+      <c r="C572" s="1" t="n">
         <v>625150</v>
       </c>
       <c r="D572" s="0" t="s">
@@ -16232,7 +16241,7 @@
       <c r="A573" s="0" t="s">
         <v>1191</v>
       </c>
-      <c r="C573" s="0" t="n">
+      <c r="C573" s="1" t="n">
         <v>625160</v>
       </c>
       <c r="D573" s="0" t="s">
@@ -16252,7 +16261,7 @@
       <c r="A574" s="0" t="s">
         <v>1193</v>
       </c>
-      <c r="C574" s="0" t="n">
+      <c r="C574" s="1" t="n">
         <v>625170</v>
       </c>
       <c r="D574" s="0" t="s">
@@ -16272,7 +16281,7 @@
       <c r="A575" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="C575" s="0" t="n">
+      <c r="C575" s="1" t="n">
         <v>625180</v>
       </c>
       <c r="D575" s="0" t="s">
@@ -16292,7 +16301,7 @@
       <c r="A576" s="0" t="s">
         <v>1197</v>
       </c>
-      <c r="C576" s="0" t="n">
+      <c r="C576" s="1" t="n">
         <v>625190</v>
       </c>
       <c r="D576" s="0" t="s">
@@ -16312,7 +16321,7 @@
       <c r="A577" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="C577" s="0" t="n">
+      <c r="C577" s="1" t="n">
         <v>626000</v>
       </c>
       <c r="D577" s="0" t="s">
@@ -16332,7 +16341,7 @@
       <c r="A578" s="0" t="s">
         <v>1201</v>
       </c>
-      <c r="C578" s="0" t="n">
+      <c r="C578" s="1" t="n">
         <v>626010</v>
       </c>
       <c r="D578" s="0" t="s">
@@ -16352,7 +16361,7 @@
       <c r="A579" s="0" t="s">
         <v>1203</v>
       </c>
-      <c r="C579" s="0" t="n">
+      <c r="C579" s="1" t="n">
         <v>626020</v>
       </c>
       <c r="D579" s="0" t="s">
@@ -16372,7 +16381,7 @@
       <c r="A580" s="0" t="s">
         <v>1205</v>
       </c>
-      <c r="C580" s="0" t="n">
+      <c r="C580" s="1" t="n">
         <v>626030</v>
       </c>
       <c r="D580" s="0" t="s">
@@ -16392,7 +16401,7 @@
       <c r="A581" s="0" t="s">
         <v>1207</v>
       </c>
-      <c r="C581" s="0" t="n">
+      <c r="C581" s="1" t="n">
         <v>627000</v>
       </c>
       <c r="D581" s="0" t="s">
@@ -16412,7 +16421,7 @@
       <c r="A582" s="0" t="s">
         <v>1209</v>
       </c>
-      <c r="C582" s="0" t="n">
+      <c r="C582" s="1" t="n">
         <v>627010</v>
       </c>
       <c r="D582" s="0" t="s">
@@ -16432,7 +16441,7 @@
       <c r="A583" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="C583" s="0" t="n">
+      <c r="C583" s="1" t="n">
         <v>627020</v>
       </c>
       <c r="D583" s="0" t="s">
@@ -16452,7 +16461,7 @@
       <c r="A584" s="0" t="s">
         <v>1213</v>
       </c>
-      <c r="C584" s="0" t="n">
+      <c r="C584" s="1" t="n">
         <v>627030</v>
       </c>
       <c r="D584" s="0" t="s">
@@ -16472,7 +16481,7 @@
       <c r="A585" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="C585" s="0" t="n">
+      <c r="C585" s="1" t="n">
         <v>630100</v>
       </c>
       <c r="D585" s="0" t="s">
@@ -16492,7 +16501,7 @@
       <c r="A586" s="0" t="s">
         <v>1218</v>
       </c>
-      <c r="C586" s="0" t="n">
+      <c r="C586" s="1" t="n">
         <v>630200</v>
       </c>
       <c r="D586" s="0" t="s">
@@ -16512,7 +16521,7 @@
       <c r="A587" s="0" t="s">
         <v>1220</v>
       </c>
-      <c r="C587" s="0" t="n">
+      <c r="C587" s="1" t="n">
         <v>640910</v>
       </c>
       <c r="D587" s="0" t="s">
@@ -16532,7 +16541,7 @@
       <c r="A588" s="0" t="s">
         <v>1223</v>
       </c>
-      <c r="C588" s="0" t="n">
+      <c r="C588" s="1" t="n">
         <v>640920</v>
       </c>
       <c r="D588" s="0" t="s">
@@ -16552,7 +16561,7 @@
       <c r="A589" s="0" t="s">
         <v>1225</v>
       </c>
-      <c r="C589" s="0" t="n">
+      <c r="C589" s="1" t="n">
         <v>640930</v>
       </c>
       <c r="D589" s="0" t="s">
@@ -16572,7 +16581,7 @@
       <c r="A590" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="C590" s="0" t="n">
+      <c r="C590" s="1" t="n">
         <v>640940</v>
       </c>
       <c r="D590" s="0" t="s">
@@ -16592,7 +16601,7 @@
       <c r="A591" s="0" t="s">
         <v>1229</v>
       </c>
-      <c r="C591" s="0" t="n">
+      <c r="C591" s="1" t="n">
         <v>640950</v>
       </c>
       <c r="D591" s="0" t="s">
@@ -16612,7 +16621,7 @@
       <c r="A592" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="C592" s="0" t="n">
+      <c r="C592" s="1" t="n">
         <v>640960</v>
       </c>
       <c r="D592" s="0" t="s">
@@ -16632,7 +16641,7 @@
       <c r="A593" s="0" t="s">
         <v>1233</v>
       </c>
-      <c r="C593" s="0" t="n">
+      <c r="C593" s="1" t="n">
         <v>640970</v>
       </c>
       <c r="D593" s="0" t="s">
@@ -16652,7 +16661,7 @@
       <c r="A594" s="0" t="s">
         <v>1235</v>
       </c>
-      <c r="C594" s="0" t="n">
+      <c r="C594" s="1" t="n">
         <v>640980</v>
       </c>
       <c r="D594" s="0" t="s">
@@ -16672,7 +16681,7 @@
       <c r="A595" s="0" t="s">
         <v>1237</v>
       </c>
-      <c r="C595" s="0" t="n">
+      <c r="C595" s="1" t="n">
         <v>640990</v>
       </c>
       <c r="D595" s="0" t="s">
@@ -16692,7 +16701,7 @@
       <c r="A596" s="0" t="s">
         <v>1239</v>
       </c>
-      <c r="C596" s="0" t="n">
+      <c r="C596" s="1" t="n">
         <v>651100</v>
       </c>
       <c r="D596" s="0" t="s">
@@ -16712,7 +16721,7 @@
       <c r="A597" s="0" t="s">
         <v>1243</v>
       </c>
-      <c r="C597" s="0" t="n">
+      <c r="C597" s="1" t="n">
         <v>651110</v>
       </c>
       <c r="D597" s="0" t="s">
@@ -16732,7 +16741,7 @@
       <c r="A598" s="0" t="s">
         <v>1245</v>
       </c>
-      <c r="C598" s="0" t="n">
+      <c r="C598" s="1" t="n">
         <v>651120</v>
       </c>
       <c r="D598" s="0" t="s">
@@ -16752,7 +16761,7 @@
       <c r="A599" s="0" t="s">
         <v>1247</v>
       </c>
-      <c r="C599" s="0" t="n">
+      <c r="C599" s="1" t="n">
         <v>651130</v>
       </c>
       <c r="D599" s="0" t="s">
@@ -16772,7 +16781,7 @@
       <c r="A600" s="0" t="s">
         <v>1249</v>
       </c>
-      <c r="C600" s="0" t="n">
+      <c r="C600" s="1" t="n">
         <v>651140</v>
       </c>
       <c r="D600" s="0" t="s">
@@ -16792,7 +16801,7 @@
       <c r="A601" s="0" t="s">
         <v>1251</v>
       </c>
-      <c r="C601" s="0" t="n">
+      <c r="C601" s="1" t="n">
         <v>651150</v>
       </c>
       <c r="D601" s="0" t="s">
@@ -16812,7 +16821,7 @@
       <c r="A602" s="0" t="s">
         <v>1253</v>
       </c>
-      <c r="C602" s="0" t="n">
+      <c r="C602" s="1" t="n">
         <v>651200</v>
       </c>
       <c r="D602" s="0" t="s">
@@ -16832,7 +16841,7 @@
       <c r="A603" s="0" t="s">
         <v>1255</v>
       </c>
-      <c r="C603" s="0" t="n">
+      <c r="C603" s="1" t="n">
         <v>651210</v>
       </c>
       <c r="D603" s="0" t="s">
@@ -16852,7 +16861,7 @@
       <c r="A604" s="0" t="s">
         <v>1257</v>
       </c>
-      <c r="C604" s="0" t="n">
+      <c r="C604" s="1" t="n">
         <v>651220</v>
       </c>
       <c r="D604" s="0" t="s">
@@ -16872,7 +16881,7 @@
       <c r="A605" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="C605" s="0" t="n">
+      <c r="C605" s="1" t="n">
         <v>651300</v>
       </c>
       <c r="D605" s="0" t="s">
@@ -16892,7 +16901,7 @@
       <c r="A606" s="0" t="s">
         <v>1261</v>
       </c>
-      <c r="C606" s="0" t="n">
+      <c r="C606" s="1" t="n">
         <v>651310</v>
       </c>
       <c r="D606" s="0" t="s">
@@ -16912,7 +16921,7 @@
       <c r="A607" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="C607" s="0" t="n">
+      <c r="C607" s="1" t="n">
         <v>651320</v>
       </c>
       <c r="D607" s="0" t="s">
@@ -16932,7 +16941,7 @@
       <c r="A608" s="0" t="s">
         <v>1265</v>
       </c>
-      <c r="C608" s="0" t="n">
+      <c r="C608" s="1" t="n">
         <v>651330</v>
       </c>
       <c r="D608" s="0" t="s">
@@ -16952,7 +16961,7 @@
       <c r="A609" s="0" t="s">
         <v>1267</v>
       </c>
-      <c r="C609" s="0" t="n">
+      <c r="C609" s="1" t="n">
         <v>651400</v>
       </c>
       <c r="D609" s="0" t="s">
@@ -16972,7 +16981,7 @@
       <c r="A610" s="0" t="s">
         <v>1269</v>
       </c>
-      <c r="C610" s="0" t="n">
+      <c r="C610" s="1" t="n">
         <v>651410</v>
       </c>
       <c r="D610" s="0" t="s">
@@ -16992,7 +17001,7 @@
       <c r="A611" s="0" t="s">
         <v>1271</v>
       </c>
-      <c r="C611" s="0" t="n">
+      <c r="C611" s="1" t="n">
         <v>651420</v>
       </c>
       <c r="D611" s="0" t="s">
@@ -17012,7 +17021,7 @@
       <c r="A612" s="0" t="s">
         <v>1273</v>
       </c>
-      <c r="C612" s="0" t="n">
+      <c r="C612" s="1" t="n">
         <v>651430</v>
       </c>
       <c r="D612" s="0" t="s">
@@ -17032,7 +17041,7 @@
       <c r="A613" s="0" t="s">
         <v>1275</v>
       </c>
-      <c r="C613" s="0" t="n">
+      <c r="C613" s="1" t="n">
         <v>651440</v>
       </c>
       <c r="D613" s="0" t="s">
@@ -17052,7 +17061,7 @@
       <c r="A614" s="0" t="s">
         <v>1277</v>
       </c>
-      <c r="C614" s="0" t="n">
+      <c r="C614" s="1" t="n">
         <v>651500</v>
       </c>
       <c r="D614" s="0" t="s">
@@ -17072,7 +17081,7 @@
       <c r="A615" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="C615" s="0" t="n">
+      <c r="C615" s="1" t="n">
         <v>651510</v>
       </c>
       <c r="D615" s="0" t="s">
@@ -17092,7 +17101,7 @@
       <c r="A616" s="0" t="s">
         <v>1281</v>
       </c>
-      <c r="C616" s="0" t="n">
+      <c r="C616" s="1" t="n">
         <v>651600</v>
       </c>
       <c r="D616" s="0" t="s">
@@ -17112,7 +17121,7 @@
       <c r="A617" s="0" t="s">
         <v>1283</v>
       </c>
-      <c r="C617" s="0" t="n">
+      <c r="C617" s="1" t="n">
         <v>651620</v>
       </c>
       <c r="D617" s="0" t="s">
@@ -17132,7 +17141,7 @@
       <c r="A618" s="0" t="s">
         <v>1285</v>
       </c>
-      <c r="C618" s="0" t="n">
+      <c r="C618" s="1" t="n">
         <v>651630</v>
       </c>
       <c r="D618" s="0" t="s">
@@ -17152,7 +17161,7 @@
       <c r="A619" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="C619" s="0" t="n">
+      <c r="C619" s="1" t="n">
         <v>651640</v>
       </c>
       <c r="D619" s="0" t="s">
@@ -17172,7 +17181,7 @@
       <c r="A620" s="0" t="s">
         <v>1289</v>
       </c>
-      <c r="C620" s="0" t="n">
+      <c r="C620" s="1" t="n">
         <v>651700</v>
       </c>
       <c r="D620" s="0" t="s">
@@ -17192,7 +17201,7 @@
       <c r="A621" s="0" t="s">
         <v>1291</v>
       </c>
-      <c r="C621" s="0" t="n">
+      <c r="C621" s="1" t="n">
         <v>651710</v>
       </c>
       <c r="D621" s="0" t="s">
@@ -17212,7 +17221,7 @@
       <c r="A622" s="0" t="s">
         <v>1293</v>
       </c>
-      <c r="C622" s="0" t="n">
+      <c r="C622" s="1" t="n">
         <v>651720</v>
       </c>
       <c r="D622" s="0" t="s">
@@ -17232,7 +17241,7 @@
       <c r="A623" s="0" t="s">
         <v>1295</v>
       </c>
-      <c r="C623" s="0" t="n">
+      <c r="C623" s="1" t="n">
         <v>651730</v>
       </c>
       <c r="D623" s="0" t="s">
@@ -17252,7 +17261,7 @@
       <c r="A624" s="0" t="s">
         <v>1297</v>
       </c>
-      <c r="C624" s="0" t="n">
+      <c r="C624" s="1" t="n">
         <v>651740</v>
       </c>
       <c r="D624" s="0" t="s">
@@ -17272,7 +17281,7 @@
       <c r="A625" s="0" t="s">
         <v>1299</v>
       </c>
-      <c r="C625" s="0" t="n">
+      <c r="C625" s="1" t="n">
         <v>651750</v>
       </c>
       <c r="D625" s="0" t="s">
@@ -17292,7 +17301,7 @@
       <c r="A626" s="0" t="s">
         <v>1301</v>
       </c>
-      <c r="C626" s="0" t="n">
+      <c r="C626" s="1" t="n">
         <v>652100</v>
       </c>
       <c r="D626" s="0" t="s">
@@ -17312,7 +17321,7 @@
       <c r="A627" s="0" t="s">
         <v>1304</v>
       </c>
-      <c r="C627" s="0" t="n">
+      <c r="C627" s="1" t="n">
         <v>652110</v>
       </c>
       <c r="D627" s="0" t="s">
@@ -17332,7 +17341,7 @@
       <c r="A628" s="0" t="s">
         <v>1306</v>
       </c>
-      <c r="C628" s="0" t="n">
+      <c r="C628" s="1" t="n">
         <v>652120</v>
       </c>
       <c r="D628" s="0" t="s">
@@ -17352,7 +17361,7 @@
       <c r="A629" s="0" t="s">
         <v>1308</v>
       </c>
-      <c r="C629" s="0" t="n">
+      <c r="C629" s="1" t="n">
         <v>652130</v>
       </c>
       <c r="D629" s="0" t="s">
@@ -17372,7 +17381,7 @@
       <c r="A630" s="0" t="s">
         <v>1310</v>
       </c>
-      <c r="C630" s="0" t="n">
+      <c r="C630" s="1" t="n">
         <v>652140</v>
       </c>
       <c r="D630" s="0" t="s">
@@ -17392,7 +17401,7 @@
       <c r="A631" s="0" t="s">
         <v>1312</v>
       </c>
-      <c r="C631" s="0" t="n">
+      <c r="C631" s="1" t="n">
         <v>652150</v>
       </c>
       <c r="D631" s="0" t="s">
@@ -17412,7 +17421,7 @@
       <c r="A632" s="0" t="s">
         <v>1314</v>
       </c>
-      <c r="C632" s="0" t="n">
+      <c r="C632" s="1" t="n">
         <v>652160</v>
       </c>
       <c r="D632" s="0" t="s">
@@ -17432,7 +17441,7 @@
       <c r="A633" s="0" t="s">
         <v>1316</v>
       </c>
-      <c r="C633" s="0" t="n">
+      <c r="C633" s="1" t="n">
         <v>652170</v>
       </c>
       <c r="D633" s="0" t="s">
@@ -17452,7 +17461,7 @@
       <c r="A634" s="0" t="s">
         <v>1318</v>
       </c>
-      <c r="C634" s="0" t="n">
+      <c r="C634" s="1" t="n">
         <v>652180</v>
       </c>
       <c r="D634" s="0" t="s">
@@ -17472,7 +17481,7 @@
       <c r="A635" s="0" t="s">
         <v>1320</v>
       </c>
-      <c r="C635" s="0" t="n">
+      <c r="C635" s="1" t="n">
         <v>652200</v>
       </c>
       <c r="D635" s="0" t="s">
@@ -17492,7 +17501,7 @@
       <c r="A636" s="0" t="s">
         <v>1322</v>
       </c>
-      <c r="C636" s="0" t="n">
+      <c r="C636" s="1" t="n">
         <v>652210</v>
       </c>
       <c r="D636" s="0" t="s">
@@ -17512,7 +17521,7 @@
       <c r="A637" s="0" t="s">
         <v>1324</v>
       </c>
-      <c r="C637" s="0" t="n">
+      <c r="C637" s="1" t="n">
         <v>652220</v>
       </c>
       <c r="D637" s="0" t="s">
@@ -17532,7 +17541,7 @@
       <c r="A638" s="0" t="s">
         <v>1326</v>
       </c>
-      <c r="C638" s="0" t="n">
+      <c r="C638" s="1" t="n">
         <v>652230</v>
       </c>
       <c r="D638" s="0" t="s">
@@ -17552,7 +17561,7 @@
       <c r="A639" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="C639" s="0" t="n">
+      <c r="C639" s="1" t="n">
         <v>652240</v>
       </c>
       <c r="D639" s="0" t="s">
@@ -17572,7 +17581,7 @@
       <c r="A640" s="0" t="s">
         <v>1330</v>
       </c>
-      <c r="C640" s="0" t="n">
+      <c r="C640" s="1" t="n">
         <v>652300</v>
       </c>
       <c r="D640" s="0" t="s">
@@ -17592,7 +17601,7 @@
       <c r="A641" s="0" t="s">
         <v>1332</v>
       </c>
-      <c r="C641" s="0" t="n">
+      <c r="C641" s="1" t="n">
         <v>652310</v>
       </c>
       <c r="D641" s="0" t="s">
@@ -17612,7 +17621,7 @@
       <c r="A642" s="0" t="s">
         <v>1334</v>
       </c>
-      <c r="C642" s="0" t="n">
+      <c r="C642" s="1" t="n">
         <v>652320</v>
       </c>
       <c r="D642" s="0" t="s">
@@ -17632,7 +17641,7 @@
       <c r="A643" s="0" t="s">
         <v>1336</v>
       </c>
-      <c r="C643" s="0" t="n">
+      <c r="C643" s="1" t="n">
         <v>652330</v>
       </c>
       <c r="D643" s="0" t="s">
@@ -17652,7 +17661,7 @@
       <c r="A644" s="0" t="s">
         <v>1338</v>
       </c>
-      <c r="C644" s="0" t="n">
+      <c r="C644" s="1" t="n">
         <v>652340</v>
       </c>
       <c r="D644" s="0" t="s">
@@ -17672,7 +17681,7 @@
       <c r="A645" s="0" t="s">
         <v>1340</v>
       </c>
-      <c r="C645" s="0" t="n">
+      <c r="C645" s="1" t="n">
         <v>652350</v>
       </c>
       <c r="D645" s="0" t="s">
@@ -17692,7 +17701,7 @@
       <c r="A646" s="0" t="s">
         <v>1342</v>
       </c>
-      <c r="C646" s="0" t="n">
+      <c r="C646" s="1" t="n">
         <v>652360</v>
       </c>
       <c r="D646" s="0" t="s">
@@ -17712,7 +17721,7 @@
       <c r="A647" s="0" t="s">
         <v>1344</v>
       </c>
-      <c r="C647" s="0" t="n">
+      <c r="C647" s="1" t="n">
         <v>652370</v>
       </c>
       <c r="D647" s="0" t="s">
@@ -17732,7 +17741,7 @@
       <c r="A648" s="0" t="s">
         <v>1346</v>
       </c>
-      <c r="C648" s="0" t="n">
+      <c r="C648" s="1" t="n">
         <v>652380</v>
       </c>
       <c r="D648" s="0" t="s">
@@ -17752,7 +17761,7 @@
       <c r="A649" s="0" t="s">
         <v>1348</v>
       </c>
-      <c r="C649" s="0" t="n">
+      <c r="C649" s="1" t="n">
         <v>652382</v>
       </c>
       <c r="D649" s="0" t="s">
@@ -17772,7 +17781,7 @@
       <c r="A650" s="0" t="s">
         <v>1350</v>
       </c>
-      <c r="C650" s="0" t="n">
+      <c r="C650" s="1" t="n">
         <v>652390</v>
       </c>
       <c r="D650" s="0" t="s">
@@ -17792,7 +17801,7 @@
       <c r="A651" s="0" t="s">
         <v>1352</v>
       </c>
-      <c r="C651" s="0" t="n">
+      <c r="C651" s="1" t="n">
         <v>652400</v>
       </c>
       <c r="D651" s="0" t="s">
@@ -17812,7 +17821,7 @@
       <c r="A652" s="0" t="s">
         <v>1354</v>
       </c>
-      <c r="C652" s="0" t="n">
+      <c r="C652" s="1" t="n">
         <v>652410</v>
       </c>
       <c r="D652" s="0" t="s">
@@ -17832,7 +17841,7 @@
       <c r="A653" s="0" t="s">
         <v>1356</v>
       </c>
-      <c r="C653" s="0" t="n">
+      <c r="C653" s="1" t="n">
         <v>652420</v>
       </c>
       <c r="D653" s="0" t="s">
@@ -17852,7 +17861,7 @@
       <c r="A654" s="0" t="s">
         <v>1358</v>
       </c>
-      <c r="C654" s="0" t="n">
+      <c r="C654" s="1" t="n">
         <v>652430</v>
       </c>
       <c r="D654" s="0" t="s">
@@ -17872,7 +17881,7 @@
       <c r="A655" s="0" t="s">
         <v>1360</v>
       </c>
-      <c r="C655" s="0" t="n">
+      <c r="C655" s="1" t="n">
         <v>652500</v>
       </c>
       <c r="D655" s="0" t="s">
@@ -17892,7 +17901,7 @@
       <c r="A656" s="0" t="s">
         <v>1362</v>
       </c>
-      <c r="C656" s="0" t="n">
+      <c r="C656" s="1" t="n">
         <v>652510</v>
       </c>
       <c r="D656" s="0" t="s">
@@ -17912,7 +17921,7 @@
       <c r="A657" s="0" t="s">
         <v>1364</v>
       </c>
-      <c r="C657" s="0" t="n">
+      <c r="C657" s="1" t="n">
         <v>652520</v>
       </c>
       <c r="D657" s="0" t="s">
@@ -17932,7 +17941,7 @@
       <c r="A658" s="0" t="s">
         <v>1366</v>
       </c>
-      <c r="C658" s="0" t="n">
+      <c r="C658" s="1" t="n">
         <v>661010</v>
       </c>
       <c r="D658" s="0" t="s">
@@ -17952,7 +17961,7 @@
       <c r="A659" s="0" t="s">
         <v>1369</v>
       </c>
-      <c r="C659" s="0" t="n">
+      <c r="C659" s="1" t="n">
         <v>661020</v>
       </c>
       <c r="D659" s="0" t="s">
@@ -17972,7 +17981,7 @@
       <c r="A660" s="0" t="s">
         <v>1371</v>
       </c>
-      <c r="C660" s="0" t="n">
+      <c r="C660" s="1" t="n">
         <v>661030</v>
       </c>
       <c r="D660" s="0" t="s">
@@ -17992,7 +18001,7 @@
       <c r="A661" s="0" t="s">
         <v>1373</v>
       </c>
-      <c r="C661" s="0" t="n">
+      <c r="C661" s="1" t="n">
         <v>671010</v>
       </c>
       <c r="D661" s="0" t="s">
@@ -18012,7 +18021,7 @@
       <c r="A662" s="0" t="s">
         <v>1376</v>
       </c>
-      <c r="C662" s="0" t="n">
+      <c r="C662" s="1" t="n">
         <v>671020</v>
       </c>
       <c r="D662" s="0" t="s">
@@ -18032,7 +18041,7 @@
       <c r="A663" s="0" t="s">
         <v>1378</v>
       </c>
-      <c r="C663" s="0" t="n">
+      <c r="C663" s="1" t="n">
         <v>681010</v>
       </c>
       <c r="D663" s="0" t="s">
@@ -18052,7 +18061,7 @@
       <c r="A664" s="0" t="s">
         <v>1381</v>
       </c>
-      <c r="C664" s="0" t="n">
+      <c r="C664" s="1" t="n">
         <v>682010</v>
       </c>
       <c r="D664" s="0" t="s">
@@ -18072,7 +18081,7 @@
       <c r="A665" s="0" t="s">
         <v>1383</v>
       </c>
-      <c r="C665" s="0" t="n">
+      <c r="C665" s="1" t="n">
         <v>682020</v>
       </c>
       <c r="D665" s="0" t="s">
@@ -18092,7 +18101,7 @@
       <c r="A666" s="0" t="s">
         <v>1385</v>
       </c>
-      <c r="C666" s="0" t="n">
+      <c r="C666" s="1" t="n">
         <v>691000</v>
       </c>
       <c r="D666" s="0" t="s">
@@ -18112,7 +18121,7 @@
       <c r="A667" s="0" t="s">
         <v>1388</v>
       </c>
-      <c r="C667" s="0" t="n">
+      <c r="C667" s="1" t="n">
         <v>691100</v>
       </c>
       <c r="D667" s="0" t="s">
@@ -18132,7 +18141,7 @@
       <c r="A668" s="0" t="s">
         <v>1390</v>
       </c>
-      <c r="C668" s="0" t="n">
+      <c r="C668" s="1" t="n">
         <v>691200</v>
       </c>
       <c r="D668" s="0" t="s">
@@ -18152,7 +18161,7 @@
       <c r="A669" s="0" t="s">
         <v>1392</v>
       </c>
-      <c r="C669" s="0" t="n">
+      <c r="C669" s="1" t="n">
         <v>691210</v>
       </c>
       <c r="D669" s="0" t="s">
@@ -18172,7 +18181,7 @@
       <c r="A670" s="0" t="s">
         <v>1394</v>
       </c>
-      <c r="C670" s="0" t="n">
+      <c r="C670" s="1" t="n">
         <v>691220</v>
       </c>
       <c r="D670" s="0" t="s">
@@ -18192,7 +18201,7 @@
       <c r="A671" s="0" t="s">
         <v>1396</v>
       </c>
-      <c r="C671" s="0" t="n">
+      <c r="C671" s="1" t="n">
         <v>691230</v>
       </c>
       <c r="D671" s="0" t="s">
@@ -18212,7 +18221,7 @@
       <c r="A672" s="0" t="s">
         <v>1398</v>
       </c>
-      <c r="C672" s="0" t="n">
+      <c r="C672" s="1" t="n">
         <v>691300</v>
       </c>
       <c r="D672" s="0" t="s">
@@ -18232,7 +18241,7 @@
       <c r="A673" s="0" t="s">
         <v>1400</v>
       </c>
-      <c r="C673" s="0" t="n">
+      <c r="C673" s="1" t="n">
         <v>691320</v>
       </c>
       <c r="D673" s="0" t="s">
@@ -18252,7 +18261,7 @@
       <c r="A674" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="C674" s="0" t="n">
+      <c r="C674" s="1" t="n">
         <v>691350</v>
       </c>
       <c r="D674" s="0" t="s">
@@ -18272,7 +18281,7 @@
       <c r="A675" s="0" t="s">
         <v>1404</v>
       </c>
-      <c r="C675" s="0" t="n">
+      <c r="C675" s="1" t="n">
         <v>691360</v>
       </c>
       <c r="D675" s="0" t="s">
@@ -18292,7 +18301,7 @@
       <c r="A676" s="0" t="s">
         <v>1406</v>
       </c>
-      <c r="C676" s="0" t="n">
+      <c r="C676" s="1" t="n">
         <v>691400</v>
       </c>
       <c r="D676" s="0" t="s">
@@ -18312,7 +18321,7 @@
       <c r="A677" s="0" t="s">
         <v>1408</v>
       </c>
-      <c r="C677" s="0" t="n">
+      <c r="C677" s="1" t="n">
         <v>691500</v>
       </c>
       <c r="D677" s="0" t="s">
@@ -18332,7 +18341,7 @@
       <c r="A678" s="0" t="s">
         <v>1410</v>
       </c>
-      <c r="C678" s="0" t="n">
+      <c r="C678" s="1" t="n">
         <v>691510</v>
       </c>
       <c r="D678" s="0" t="s">
@@ -18352,7 +18361,7 @@
       <c r="A679" s="0" t="s">
         <v>1412</v>
       </c>
-      <c r="C679" s="0" t="n">
+      <c r="C679" s="1" t="n">
         <v>691600</v>
       </c>
       <c r="D679" s="0" t="s">
@@ -18372,7 +18381,7 @@
       <c r="A680" s="0" t="s">
         <v>1414</v>
       </c>
-      <c r="C680" s="0" t="n">
+      <c r="C680" s="1" t="n">
         <v>691610</v>
       </c>
       <c r="D680" s="0" t="s">
@@ -18392,7 +18401,7 @@
       <c r="A681" s="0" t="s">
         <v>1416</v>
       </c>
-      <c r="C681" s="0" t="n">
+      <c r="C681" s="1" t="n">
         <v>691700</v>
       </c>
       <c r="D681" s="0" t="s">
@@ -18412,7 +18421,7 @@
       <c r="A682" s="0" t="s">
         <v>1418</v>
       </c>
-      <c r="C682" s="0" t="n">
+      <c r="C682" s="1" t="n">
         <v>691710</v>
       </c>
       <c r="D682" s="0" t="s">
@@ -18432,7 +18441,7 @@
       <c r="A683" s="0" t="s">
         <v>1420</v>
       </c>
-      <c r="C683" s="0" t="n">
+      <c r="C683" s="1" t="n">
         <v>691720</v>
       </c>
       <c r="D683" s="0" t="s">
@@ -18452,7 +18461,7 @@
       <c r="A684" s="0" t="s">
         <v>1422</v>
       </c>
-      <c r="C684" s="0" t="n">
+      <c r="C684" s="1" t="n">
         <v>691900</v>
       </c>
       <c r="D684" s="0" t="s">
@@ -18472,7 +18481,7 @@
       <c r="A685" s="0" t="s">
         <v>1424</v>
       </c>
-      <c r="C685" s="0" t="n">
+      <c r="C685" s="1" t="n">
         <v>698010</v>
       </c>
       <c r="D685" s="0" t="s">
@@ -18492,7 +18501,7 @@
       <c r="A686" s="0" t="s">
         <v>1426</v>
       </c>
-      <c r="C686" s="0" t="n">
+      <c r="C686" s="1" t="n">
         <v>698020</v>
       </c>
       <c r="D686" s="0" t="s">
@@ -18512,7 +18521,7 @@
       <c r="A687" s="0" t="s">
         <v>1428</v>
       </c>
-      <c r="C687" s="0" t="n">
+      <c r="C687" s="1" t="n">
         <v>698030</v>
       </c>
       <c r="D687" s="0" t="s">
@@ -18532,7 +18541,7 @@
       <c r="A688" s="0" t="s">
         <v>1430</v>
       </c>
-      <c r="C688" s="0" t="n">
+      <c r="C688" s="1" t="n">
         <v>698040</v>
       </c>
       <c r="D688" s="0" t="s">
@@ -18552,7 +18561,7 @@
       <c r="A689" s="0" t="s">
         <v>1432</v>
       </c>
-      <c r="C689" s="0" t="n">
+      <c r="C689" s="1" t="n">
         <v>698050</v>
       </c>
       <c r="D689" s="0" t="s">
@@ -18572,7 +18581,7 @@
       <c r="A690" s="0" t="s">
         <v>1434</v>
       </c>
-      <c r="C690" s="0" t="n">
+      <c r="C690" s="1" t="n">
         <v>699000</v>
       </c>
       <c r="D690" s="0" t="s">
@@ -18592,7 +18601,7 @@
       <c r="A691" s="0" t="s">
         <v>1436</v>
       </c>
-      <c r="C691" s="0" t="n">
+      <c r="C691" s="1" t="n">
         <v>710151</v>
       </c>
       <c r="D691" s="0" t="s">
@@ -18612,7 +18621,7 @@
       <c r="A692" s="0" t="s">
         <v>1439</v>
       </c>
-      <c r="C692" s="0" t="n">
+      <c r="C692" s="1" t="n">
         <v>720161</v>
       </c>
       <c r="D692" s="0" t="s">
@@ -18632,7 +18641,7 @@
       <c r="A693" s="0" t="s">
         <v>1442</v>
       </c>
-      <c r="C693" s="0" t="n">
+      <c r="C693" s="1" t="n">
         <v>720162</v>
       </c>
       <c r="D693" s="0" t="s">
@@ -18652,7 +18661,7 @@
       <c r="A694" s="0" t="s">
         <v>1444</v>
       </c>
-      <c r="C694" s="0" t="n">
+      <c r="C694" s="1" t="n">
         <v>720163</v>
       </c>
       <c r="D694" s="0" t="s">
@@ -18672,7 +18681,7 @@
       <c r="A695" s="0" t="s">
         <v>1446</v>
       </c>
-      <c r="C695" s="0" t="n">
+      <c r="C695" s="1" t="n">
         <v>720164</v>
       </c>
       <c r="D695" s="0" t="s">
@@ -18692,7 +18701,7 @@
       <c r="A696" s="0" t="s">
         <v>1448</v>
       </c>
-      <c r="C696" s="0" t="n">
+      <c r="C696" s="1" t="n">
         <v>720170</v>
       </c>
       <c r="D696" s="0" t="s">
@@ -18712,7 +18721,7 @@
       <c r="A697" s="0" t="s">
         <v>1450</v>
       </c>
-      <c r="C697" s="0" t="n">
+      <c r="C697" s="1" t="n">
         <v>730100</v>
       </c>
       <c r="D697" s="0" t="s">
@@ -18732,7 +18741,7 @@
       <c r="A698" s="0" t="s">
         <v>1453</v>
       </c>
-      <c r="C698" s="0" t="n">
+      <c r="C698" s="1" t="n">
         <v>730200</v>
       </c>
       <c r="D698" s="0" t="s">
@@ -18752,7 +18761,7 @@
       <c r="A699" s="0" t="s">
         <v>1455</v>
       </c>
-      <c r="C699" s="0" t="n">
+      <c r="C699" s="1" t="n">
         <v>730300</v>
       </c>
       <c r="D699" s="0" t="s">
@@ -18772,7 +18781,7 @@
       <c r="A700" s="0" t="s">
         <v>1457</v>
       </c>
-      <c r="C700" s="0" t="n">
+      <c r="C700" s="1" t="n">
         <v>730400</v>
       </c>
       <c r="D700" s="0" t="s">
@@ -18792,7 +18801,7 @@
       <c r="A701" s="0" t="s">
         <v>1459</v>
       </c>
-      <c r="C701" s="0" t="n">
+      <c r="C701" s="1" t="n">
         <v>731000</v>
       </c>
       <c r="D701" s="0" t="s">
@@ -18812,7 +18821,7 @@
       <c r="A702" s="0" t="s">
         <v>1461</v>
       </c>
-      <c r="C702" s="0" t="n">
+      <c r="C702" s="1" t="n">
         <v>731010</v>
       </c>
       <c r="D702" s="0" t="s">
@@ -18832,7 +18841,7 @@
       <c r="A703" s="0" t="s">
         <v>1463</v>
       </c>
-      <c r="C703" s="0" t="n">
+      <c r="C703" s="1" t="n">
         <v>731100</v>
       </c>
       <c r="D703" s="0" t="s">
@@ -18852,7 +18861,7 @@
       <c r="A704" s="0" t="s">
         <v>1465</v>
       </c>
-      <c r="C704" s="0" t="n">
+      <c r="C704" s="1" t="n">
         <v>731110</v>
       </c>
       <c r="D704" s="0" t="s">
@@ -18872,7 +18881,7 @@
       <c r="A705" s="0" t="s">
         <v>1467</v>
       </c>
-      <c r="C705" s="0" t="n">
+      <c r="C705" s="1" t="n">
         <v>731120</v>
       </c>
       <c r="D705" s="0" t="s">
@@ -18892,7 +18901,7 @@
       <c r="A706" s="0" t="s">
         <v>1469</v>
       </c>
-      <c r="C706" s="0" t="n">
+      <c r="C706" s="1" t="n">
         <v>731130</v>
       </c>
       <c r="D706" s="0" t="s">
@@ -18912,7 +18921,7 @@
       <c r="A707" s="0" t="s">
         <v>1471</v>
       </c>
-      <c r="C707" s="0" t="n">
+      <c r="C707" s="1" t="n">
         <v>731140</v>
       </c>
       <c r="D707" s="0" t="s">
@@ -18932,7 +18941,7 @@
       <c r="A708" s="0" t="s">
         <v>1473</v>
       </c>
-      <c r="C708" s="0" t="n">
+      <c r="C708" s="1" t="n">
         <v>731170</v>
       </c>
       <c r="D708" s="0" t="s">
@@ -18952,7 +18961,7 @@
       <c r="A709" s="0" t="s">
         <v>1475</v>
       </c>
-      <c r="C709" s="0" t="n">
+      <c r="C709" s="1" t="n">
         <v>831000</v>
       </c>
       <c r="D709" s="0" t="s">
@@ -18972,7 +18981,7 @@
       <c r="A710" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="C710" s="0" t="n">
+      <c r="C710" s="1" t="n">
         <v>832000</v>
       </c>
       <c r="D710" s="0" t="s">
@@ -18992,7 +19001,7 @@
       <c r="A711" s="0" t="s">
         <v>1481</v>
       </c>
-      <c r="C711" s="0" t="n">
+      <c r="C711" s="1" t="n">
         <v>833000</v>
       </c>
       <c r="D711" s="0" t="s">
@@ -19012,7 +19021,7 @@
       <c r="A712" s="0" t="s">
         <v>1483</v>
       </c>
-      <c r="C712" s="0" t="n">
+      <c r="C712" s="1" t="n">
         <v>841000</v>
       </c>
       <c r="D712" s="0" t="s">
@@ -19032,7 +19041,7 @@
       <c r="A713" s="0" t="s">
         <v>1486</v>
       </c>
-      <c r="C713" s="0" t="n">
+      <c r="C713" s="1" t="n">
         <v>842000</v>
       </c>
       <c r="D713" s="0" t="s">
@@ -19052,7 +19061,7 @@
       <c r="A714" s="0" t="s">
         <v>1488</v>
       </c>
-      <c r="C714" s="0" t="n">
+      <c r="C714" s="1" t="n">
         <v>843000</v>
       </c>
       <c r="D714" s="0" t="s">
@@ -19072,7 +19081,7 @@
       <c r="A715" s="0" t="s">
         <v>1490</v>
       </c>
-      <c r="C715" s="0" t="n">
+      <c r="C715" s="1" t="n">
         <v>851000</v>
       </c>
       <c r="D715" s="0" t="s">
@@ -19092,7 +19101,7 @@
       <c r="A716" s="0" t="s">
         <v>1493</v>
       </c>
-      <c r="C716" s="0" t="n">
+      <c r="C716" s="1" t="n">
         <v>851010</v>
       </c>
       <c r="D716" s="0" t="s">
@@ -19112,7 +19121,7 @@
       <c r="A717" s="0" t="s">
         <v>1495</v>
       </c>
-      <c r="C717" s="0" t="n">
+      <c r="C717" s="1" t="n">
         <v>851020</v>
       </c>
       <c r="D717" s="0" t="s">
@@ -19132,7 +19141,7 @@
       <c r="A718" s="0" t="s">
         <v>1497</v>
       </c>
-      <c r="C718" s="0" t="n">
+      <c r="C718" s="1" t="n">
         <v>851030</v>
       </c>
       <c r="D718" s="0" t="s">
@@ -19152,7 +19161,7 @@
       <c r="A719" s="0" t="s">
         <v>1499</v>
       </c>
-      <c r="C719" s="0" t="n">
+      <c r="C719" s="1" t="n">
         <v>851040</v>
       </c>
       <c r="D719" s="0" t="s">
@@ -19172,7 +19181,7 @@
       <c r="A720" s="0" t="s">
         <v>1501</v>
       </c>
-      <c r="C720" s="0" t="n">
+      <c r="C720" s="1" t="n">
         <v>851050</v>
       </c>
       <c r="D720" s="0" t="s">
@@ -19192,7 +19201,7 @@
       <c r="A721" s="0" t="s">
         <v>1503</v>
       </c>
-      <c r="C721" s="0" t="n">
+      <c r="C721" s="1" t="n">
         <v>851060</v>
       </c>
       <c r="D721" s="0" t="s">
@@ -19212,7 +19221,7 @@
       <c r="A722" s="0" t="s">
         <v>1505</v>
       </c>
-      <c r="C722" s="0" t="n">
+      <c r="C722" s="1" t="n">
         <v>851100</v>
       </c>
       <c r="D722" s="0" t="s">
@@ -19232,7 +19241,7 @@
       <c r="A723" s="0" t="s">
         <v>1507</v>
       </c>
-      <c r="C723" s="0" t="n">
+      <c r="C723" s="1" t="n">
         <v>851110</v>
       </c>
       <c r="D723" s="0" t="s">
@@ -19252,7 +19261,7 @@
       <c r="A724" s="0" t="s">
         <v>1509</v>
       </c>
-      <c r="C724" s="0" t="n">
+      <c r="C724" s="1" t="n">
         <v>851150</v>
       </c>
       <c r="D724" s="0" t="s">
@@ -19272,7 +19281,7 @@
       <c r="A725" s="0" t="s">
         <v>1511</v>
       </c>
-      <c r="C725" s="0" t="n">
+      <c r="C725" s="1" t="n">
         <v>852000</v>
       </c>
       <c r="D725" s="0" t="s">
@@ -19292,7 +19301,7 @@
       <c r="A726" s="0" t="s">
         <v>1513</v>
       </c>
-      <c r="C726" s="0" t="n">
+      <c r="C726" s="1" t="n">
         <v>852040</v>
       </c>
       <c r="D726" s="0" t="s">
@@ -19312,7 +19321,7 @@
       <c r="A727" s="0" t="s">
         <v>1515</v>
       </c>
-      <c r="C727" s="0" t="n">
+      <c r="C727" s="1" t="n">
         <v>852050</v>
       </c>
       <c r="D727" s="0" t="s">
@@ -19332,7 +19341,7 @@
       <c r="A728" s="0" t="s">
         <v>1517</v>
       </c>
-      <c r="C728" s="0" t="n">
+      <c r="C728" s="1" t="n">
         <v>852060</v>
       </c>
       <c r="D728" s="0" t="s">
@@ -19352,7 +19361,7 @@
       <c r="A729" s="0" t="s">
         <v>1519</v>
       </c>
-      <c r="C729" s="0" t="n">
+      <c r="C729" s="1" t="n">
         <v>852090</v>
       </c>
       <c r="D729" s="0" t="s">
@@ -19372,7 +19381,7 @@
       <c r="A730" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="C730" s="0" t="n">
+      <c r="C730" s="1" t="n">
         <v>860211</v>
       </c>
       <c r="D730" s="0" t="s">
@@ -19392,7 +19401,7 @@
       <c r="A731" s="0" t="s">
         <v>1524</v>
       </c>
-      <c r="C731" s="0" t="n">
+      <c r="C731" s="1" t="n">
         <v>860212</v>
       </c>
       <c r="D731" s="0" t="s">
@@ -19412,7 +19421,7 @@
       <c r="A732" s="0" t="s">
         <v>1526</v>
       </c>
-      <c r="C732" s="0" t="n">
+      <c r="C732" s="1" t="n">
         <v>860213</v>
       </c>
       <c r="D732" s="0" t="s">
@@ -19432,7 +19441,7 @@
       <c r="A733" s="0" t="s">
         <v>1528</v>
       </c>
-      <c r="C733" s="0" t="n">
+      <c r="C733" s="1" t="n">
         <v>860214</v>
       </c>
       <c r="D733" s="0" t="s">
@@ -19452,7 +19461,7 @@
       <c r="A734" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="C734" s="0" t="n">
+      <c r="C734" s="1" t="n">
         <v>860215</v>
       </c>
       <c r="D734" s="0" t="s">
@@ -19472,7 +19481,7 @@
       <c r="A735" s="0" t="s">
         <v>1532</v>
       </c>
-      <c r="C735" s="0" t="n">
+      <c r="C735" s="1" t="n">
         <v>870220</v>
       </c>
       <c r="D735" s="0" t="s">
@@ -19492,7 +19501,7 @@
       <c r="A736" s="0" t="s">
         <v>1535</v>
       </c>
-      <c r="C736" s="0" t="n">
+      <c r="C736" s="1" t="n">
         <v>870230</v>
       </c>
       <c r="D736" s="0" t="s">
@@ -19512,7 +19521,7 @@
       <c r="A737" s="0" t="s">
         <v>1538</v>
       </c>
-      <c r="C737" s="0" t="n">
+      <c r="C737" s="1" t="n">
         <v>870240</v>
       </c>
       <c r="D737" s="0" t="s">
@@ -19532,7 +19541,7 @@
       <c r="A738" s="0" t="s">
         <v>1540</v>
       </c>
-      <c r="C738" s="0" t="n">
+      <c r="C738" s="1" t="n">
         <v>880250</v>
       </c>
       <c r="D738" s="0" t="s">
@@ -19552,7 +19561,7 @@
       <c r="A739" s="0" t="s">
         <v>1543</v>
       </c>
-      <c r="C739" s="0" t="n">
+      <c r="C739" s="1" t="n">
         <v>880260</v>
       </c>
       <c r="D739" s="0" t="s">
@@ -19572,7 +19581,7 @@
       <c r="A740" s="0" t="s">
         <v>1545</v>
       </c>
-      <c r="C740" s="0" t="n">
+      <c r="C740" s="1" t="n">
         <v>880270</v>
       </c>
       <c r="D740" s="0" t="s">
@@ -19591,7 +19600,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
